--- a/Code/Results/Cases/Case_2_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_31/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9908650123809456</v>
+        <v>0.9908650123809473</v>
       </c>
       <c r="D2">
-        <v>1.009690429605158</v>
+        <v>1.009690429605159</v>
       </c>
       <c r="E2">
-        <v>0.9731152360710498</v>
+        <v>0.9731152360710501</v>
       </c>
       <c r="F2">
-        <v>0.9909840941761918</v>
+        <v>0.9909840941761927</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040391883026054</v>
+        <v>1.040391883026055</v>
       </c>
       <c r="J2">
-        <v>1.013322425100819</v>
+        <v>1.01332242510082</v>
       </c>
       <c r="K2">
-        <v>1.021016392194072</v>
+        <v>1.021016392194074</v>
       </c>
       <c r="L2">
-        <v>0.9849622750672854</v>
+        <v>0.9849622750672856</v>
       </c>
       <c r="M2">
-        <v>1.002570480540791</v>
+        <v>1.002570480540792</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9988898223345648</v>
+        <v>0.9988898223345645</v>
       </c>
       <c r="D3">
         <v>1.015768281019529</v>
       </c>
       <c r="E3">
-        <v>0.9792930554811859</v>
+        <v>0.9792930554811858</v>
       </c>
       <c r="F3">
         <v>0.9987992701924</v>
@@ -474,7 +474,7 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043233617914838</v>
+        <v>1.043233617914839</v>
       </c>
       <c r="J3">
         <v>1.019410797733787</v>
@@ -483,7 +483,7 @@
         <v>1.026203302146318</v>
       </c>
       <c r="L3">
-        <v>0.9901979258717204</v>
+        <v>0.9901979258717203</v>
       </c>
       <c r="M3">
         <v>1.009447537670226</v>
@@ -500,10 +500,10 @@
         <v>1.00390813124586</v>
       </c>
       <c r="D4">
-        <v>1.019571254425667</v>
+        <v>1.019571254425666</v>
       </c>
       <c r="E4">
-        <v>0.9831765777757631</v>
+        <v>0.9831765777757626</v>
       </c>
       <c r="F4">
         <v>1.003699496629341</v>
@@ -518,7 +518,7 @@
         <v>1.023212392209478</v>
       </c>
       <c r="K4">
-        <v>1.029439073410324</v>
+        <v>1.029439073410323</v>
       </c>
       <c r="L4">
         <v>0.9934823789420668</v>
@@ -541,10 +541,10 @@
         <v>1.021140722997057</v>
       </c>
       <c r="E5">
-        <v>0.9847835058555171</v>
+        <v>0.9847835058555174</v>
       </c>
       <c r="F5">
-        <v>1.005724304933051</v>
+        <v>1.005724304933052</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.045717847692067</v>
       </c>
       <c r="J5">
-        <v>1.024779440230939</v>
+        <v>1.02477944023094</v>
       </c>
       <c r="K5">
         <v>1.030772145501145</v>
       </c>
       <c r="L5">
-        <v>0.9948398079022145</v>
+        <v>0.9948398079022147</v>
       </c>
       <c r="M5">
-        <v>1.015531250762658</v>
+        <v>1.015531250762659</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006324064003145</v>
+        <v>1.006324064003146</v>
       </c>
       <c r="D6">
-        <v>1.021402573971865</v>
+        <v>1.021402573971866</v>
       </c>
       <c r="E6">
-        <v>0.9850518519932032</v>
+        <v>0.9850518519932036</v>
       </c>
       <c r="F6">
-        <v>1.006062274427875</v>
+        <v>1.006062274427876</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.045838214600405</v>
       </c>
       <c r="J6">
-        <v>1.025040780059435</v>
+        <v>1.025040780059436</v>
       </c>
       <c r="K6">
-        <v>1.030994420309118</v>
+        <v>1.030994420309119</v>
       </c>
       <c r="L6">
-        <v>0.9950663947908025</v>
+        <v>0.9950663947908029</v>
       </c>
       <c r="M6">
-        <v>1.015827900019635</v>
+        <v>1.015827900019636</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -617,7 +617,7 @@
         <v>1.019592338652039</v>
       </c>
       <c r="E7">
-        <v>0.9831981486517613</v>
+        <v>0.983198148651761</v>
       </c>
       <c r="F7">
         <v>1.003726687865559</v>
@@ -629,16 +629,16 @@
         <v>1.045004702157229</v>
       </c>
       <c r="J7">
-        <v>1.023233451177885</v>
+        <v>1.023233451177884</v>
       </c>
       <c r="K7">
-        <v>1.029456991033736</v>
+        <v>1.029456991033735</v>
       </c>
       <c r="L7">
-        <v>0.9935006069965573</v>
+        <v>0.9935006069965572</v>
       </c>
       <c r="M7">
-        <v>1.013777355757191</v>
+        <v>1.01377735575719</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9936147274807904</v>
+        <v>0.9936147274807905</v>
       </c>
       <c r="D8">
         <v>1.011772466024583</v>
       </c>
       <c r="E8">
-        <v>0.9752276432822928</v>
+        <v>0.9752276432822927</v>
       </c>
       <c r="F8">
-        <v>0.9936591543700409</v>
+        <v>0.9936591543700413</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -670,7 +670,7 @@
         <v>1.015409788348891</v>
       </c>
       <c r="K8">
-        <v>1.022795298510497</v>
+        <v>1.022795298510496</v>
       </c>
       <c r="L8">
         <v>0.9867539671484391</v>
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9739640875757772</v>
+        <v>0.9739640875757788</v>
       </c>
       <c r="D9">
-        <v>0.9969091797867226</v>
+        <v>0.9969091797867242</v>
       </c>
       <c r="E9">
-        <v>0.9602310291093702</v>
+        <v>0.9602310291093713</v>
       </c>
       <c r="F9">
-        <v>0.9746039849998666</v>
+        <v>0.974603984999868</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034321743525447</v>
+        <v>1.034321743525448</v>
       </c>
       <c r="J9">
-        <v>1.000470970219861</v>
+        <v>1.000470970219863</v>
       </c>
       <c r="K9">
-        <v>1.010052603231772</v>
+        <v>1.010052603231774</v>
       </c>
       <c r="L9">
-        <v>0.9740040601986792</v>
+        <v>0.97400406019868</v>
       </c>
       <c r="M9">
-        <v>0.9881229869142296</v>
+        <v>0.9881229869142313</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9596728123193151</v>
+        <v>0.9596728123193159</v>
       </c>
       <c r="D10">
-        <v>0.9861281057873972</v>
+        <v>0.9861281057873981</v>
       </c>
       <c r="E10">
-        <v>0.9494678130742368</v>
+        <v>0.9494678130742367</v>
       </c>
       <c r="F10">
-        <v>0.9608325881974065</v>
+        <v>0.9608325881974071</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.02911714675187</v>
       </c>
       <c r="J10">
-        <v>0.9895831168908412</v>
+        <v>0.9895831168908421</v>
       </c>
       <c r="K10">
-        <v>1.000752421404828</v>
+        <v>1.000752421404829</v>
       </c>
       <c r="L10">
         <v>0.964813587852882</v>
       </c>
       <c r="M10">
-        <v>0.9759469615716266</v>
+        <v>0.9759469615716273</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9531459914727745</v>
+        <v>0.9531459914727772</v>
       </c>
       <c r="D11">
-        <v>0.9812141902249653</v>
+        <v>0.9812141902249678</v>
       </c>
       <c r="E11">
-        <v>0.9445920977709216</v>
+        <v>0.9445920977709225</v>
       </c>
       <c r="F11">
-        <v>0.9545665370031576</v>
+        <v>0.9545665370031597</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026722871873661</v>
+        <v>1.026722871873662</v>
       </c>
       <c r="J11">
-        <v>0.9846067554629916</v>
+        <v>0.9846067554629938</v>
       </c>
       <c r="K11">
-        <v>0.9964992933157851</v>
+        <v>0.9964992933157875</v>
       </c>
       <c r="L11">
-        <v>0.9606404543448152</v>
+        <v>0.960640454344816</v>
       </c>
       <c r="M11">
-        <v>0.9703993232619719</v>
+        <v>0.9703993232619741</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9506650631330229</v>
+        <v>0.9506650631330221</v>
       </c>
       <c r="D12">
-        <v>0.9793481182932531</v>
+        <v>0.9793481182932524</v>
       </c>
       <c r="E12">
-        <v>0.942745340673112</v>
+        <v>0.9427453406731117</v>
       </c>
       <c r="F12">
-        <v>0.9521885104903164</v>
+        <v>0.9521885104903157</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.025810324260414</v>
       </c>
       <c r="J12">
-        <v>0.9827147588807805</v>
+        <v>0.98271475888078</v>
       </c>
       <c r="K12">
-        <v>0.9948819673896339</v>
+        <v>0.9948819673896332</v>
       </c>
       <c r="L12">
-        <v>0.9590582859554656</v>
+        <v>0.9590582859554655</v>
       </c>
       <c r="M12">
-        <v>0.968292839794094</v>
+        <v>0.9682928397940934</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9511998925353287</v>
+        <v>0.9511998925353278</v>
       </c>
       <c r="D13">
-        <v>0.9797503141485739</v>
+        <v>0.9797503141485733</v>
       </c>
       <c r="E13">
-        <v>0.943143151491786</v>
+        <v>0.9431431514917858</v>
       </c>
       <c r="F13">
-        <v>0.9527009813873779</v>
+        <v>0.9527009813873776</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.026007155908911</v>
       </c>
       <c r="J13">
-        <v>0.9831226444806942</v>
+        <v>0.9831226444806933</v>
       </c>
       <c r="K13">
-        <v>0.9952306506272309</v>
+        <v>0.9952306506272303</v>
       </c>
       <c r="L13">
-        <v>0.9593991712058133</v>
+        <v>0.9593991712058132</v>
       </c>
       <c r="M13">
-        <v>0.9687468417372683</v>
+        <v>0.968746841737268</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.952942107565847</v>
+        <v>0.9529421075658464</v>
       </c>
       <c r="D14">
-        <v>0.9810607978138323</v>
+        <v>0.9810607978138318</v>
       </c>
       <c r="E14">
-        <v>0.9444401938103582</v>
+        <v>0.944440193810358</v>
       </c>
       <c r="F14">
-        <v>0.9543710313629599</v>
+        <v>0.9543710313629594</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.026647926993989</v>
       </c>
       <c r="J14">
-        <v>0.9844512776831785</v>
+        <v>0.9844512776831781</v>
       </c>
       <c r="K14">
-        <v>0.9963663927149768</v>
+        <v>0.9963663927149766</v>
       </c>
       <c r="L14">
-        <v>0.9605103451793872</v>
+        <v>0.960510345179387</v>
       </c>
       <c r="M14">
-        <v>0.9702261642672266</v>
+        <v>0.970226164267226</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.954007860638171</v>
+        <v>0.9540078606381671</v>
       </c>
       <c r="D15">
-        <v>0.9818626926843486</v>
+        <v>0.9818626926843455</v>
       </c>
       <c r="E15">
-        <v>0.9452345044551931</v>
+        <v>0.9452345044551917</v>
       </c>
       <c r="F15">
-        <v>0.9553931441779984</v>
+        <v>0.9553931441779955</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027039584388612</v>
+        <v>1.02703958438861</v>
       </c>
       <c r="J15">
-        <v>0.9852639837025842</v>
+        <v>0.9852639837025806</v>
       </c>
       <c r="K15">
-        <v>0.9970610725974899</v>
+        <v>0.9970610725974869</v>
       </c>
       <c r="L15">
-        <v>0.9611906278887516</v>
+        <v>0.9611906278887501</v>
       </c>
       <c r="M15">
-        <v>0.9711314031853473</v>
+        <v>0.9711314031853444</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.960098375168035</v>
+        <v>0.9600983751680351</v>
       </c>
       <c r="D16">
-        <v>0.986448729760935</v>
+        <v>0.9864487297609352</v>
       </c>
       <c r="E16">
         <v>0.9497865881304053</v>
       </c>
       <c r="F16">
-        <v>0.9612416513918929</v>
+        <v>0.9612416513918937</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,7 +971,7 @@
         <v>1.029272913521837</v>
       </c>
       <c r="J16">
-        <v>0.9899075197309466</v>
+        <v>0.9899075197309469</v>
       </c>
       <c r="K16">
         <v>1.001029632782213</v>
@@ -980,7 +980,7 @@
         <v>0.9650862204271042</v>
       </c>
       <c r="M16">
-        <v>0.9763089723038291</v>
+        <v>0.9763089723038296</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9638243852248721</v>
+        <v>0.96382438522487</v>
       </c>
       <c r="D17">
-        <v>0.9892570803135511</v>
+        <v>0.9892570803135491</v>
       </c>
       <c r="E17">
-        <v>0.9525821523596092</v>
+        <v>0.952582152359608</v>
       </c>
       <c r="F17">
-        <v>0.9648258477165523</v>
+        <v>0.9648258477165507</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030634797154546</v>
+        <v>1.030634797154545</v>
       </c>
       <c r="J17">
-        <v>0.9927474061354047</v>
+        <v>0.9927474061354026</v>
       </c>
       <c r="K17">
-        <v>1.003456130790923</v>
+        <v>1.003456130790921</v>
       </c>
       <c r="L17">
-        <v>0.9674760113717914</v>
+        <v>0.9674760113717903</v>
       </c>
       <c r="M17">
-        <v>0.9794800567687895</v>
+        <v>0.9794800567687879</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9659654628232782</v>
+        <v>0.9659654628232773</v>
       </c>
       <c r="D18">
-        <v>0.9908717374134907</v>
+        <v>0.9908717374134901</v>
       </c>
       <c r="E18">
-        <v>0.9541922489003785</v>
+        <v>0.9541922489003782</v>
       </c>
       <c r="F18">
-        <v>0.9668875960932197</v>
+        <v>0.9668875960932189</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031415746071788</v>
+        <v>1.031415746071787</v>
       </c>
       <c r="J18">
-        <v>0.994378915962074</v>
+        <v>0.9943789159620734</v>
       </c>
       <c r="K18">
-        <v>1.004849919074099</v>
+        <v>1.004849919074098</v>
       </c>
       <c r="L18">
-        <v>0.9688514806584567</v>
+        <v>0.9688514806584564</v>
       </c>
       <c r="M18">
-        <v>0.9813034666285766</v>
+        <v>0.9813034666285759</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.966690205304107</v>
+        <v>0.9666902053041065</v>
       </c>
       <c r="D19">
-        <v>0.9914184331371915</v>
+        <v>0.9914184331371912</v>
       </c>
       <c r="E19">
-        <v>0.9547378660967597</v>
+        <v>0.9547378660967598</v>
       </c>
       <c r="F19">
-        <v>0.9675858453245033</v>
+        <v>0.9675858453245032</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.031679812070021</v>
       </c>
       <c r="J19">
-        <v>0.9949311046575767</v>
+        <v>0.9949311046575766</v>
       </c>
       <c r="K19">
         <v>1.005321609439328</v>
       </c>
       <c r="L19">
-        <v>0.9693174336979241</v>
+        <v>0.9693174336979243</v>
       </c>
       <c r="M19">
-        <v>0.9819208782346013</v>
+        <v>0.9819208782346012</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1108,13 +1108,13 @@
         <v>0.9634279928289312</v>
       </c>
       <c r="D20">
-        <v>0.9889582183184401</v>
+        <v>0.9889582183184398</v>
       </c>
       <c r="E20">
-        <v>0.9522843588919948</v>
+        <v>0.952284358891995</v>
       </c>
       <c r="F20">
-        <v>0.9644443155831546</v>
+        <v>0.964444315583154</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.030490081472803</v>
       </c>
       <c r="J20">
-        <v>0.9924453220580585</v>
+        <v>0.9924453220580582</v>
       </c>
       <c r="K20">
         <v>1.003198043189724</v>
       </c>
       <c r="L20">
-        <v>0.9672215385799927</v>
+        <v>0.967221538579993</v>
       </c>
       <c r="M20">
-        <v>0.9791425726883505</v>
+        <v>0.9791425726883501</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1146,13 +1146,13 @@
         <v>0.9524306808659679</v>
       </c>
       <c r="D21">
-        <v>0.9806760545705681</v>
+        <v>0.9806760545705685</v>
       </c>
       <c r="E21">
-        <v>0.9440592622686469</v>
+        <v>0.9440592622686463</v>
       </c>
       <c r="F21">
-        <v>0.9538806825995662</v>
+        <v>0.9538806825995657</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.026459894824743</v>
       </c>
       <c r="J21">
-        <v>0.9840612678290155</v>
+        <v>0.9840612678290158</v>
       </c>
       <c r="K21">
-        <v>0.9960330122267046</v>
+        <v>0.9960330122267048</v>
       </c>
       <c r="L21">
-        <v>0.9601840440440423</v>
+        <v>0.9601840440440419</v>
       </c>
       <c r="M21">
-        <v>0.9697918456337524</v>
+        <v>0.9697918456337523</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9451853628911504</v>
+        <v>0.9451853628911525</v>
       </c>
       <c r="D22">
-        <v>0.9752301110779227</v>
+        <v>0.9752301110779246</v>
       </c>
       <c r="E22">
-        <v>0.9386792109722168</v>
+        <v>0.9386792109722178</v>
       </c>
       <c r="F22">
-        <v>0.9469434222618606</v>
+        <v>0.946943422261862</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023790405095721</v>
+        <v>1.023790405095722</v>
       </c>
       <c r="J22">
-        <v>0.9785352827529762</v>
+        <v>0.9785352827529779</v>
       </c>
       <c r="K22">
-        <v>0.9913087695088826</v>
+        <v>0.9913087695088845</v>
       </c>
       <c r="L22">
-        <v>0.9555718492940357</v>
+        <v>0.9555718492940364</v>
       </c>
       <c r="M22">
-        <v>0.9636446742449621</v>
+        <v>0.9636446742449633</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9490597620729947</v>
+        <v>0.9490597620729934</v>
       </c>
       <c r="D23">
-        <v>0.9781412043339237</v>
+        <v>0.9781412043339226</v>
       </c>
       <c r="E23">
-        <v>0.9415523156318693</v>
+        <v>0.9415523156318694</v>
       </c>
       <c r="F23">
-        <v>0.9506508965768591</v>
+        <v>0.950650896576858</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.025219183337137</v>
       </c>
       <c r="J23">
-        <v>0.9814904350060665</v>
+        <v>0.9814904350060651</v>
       </c>
       <c r="K23">
-        <v>0.9938353087450374</v>
+        <v>0.9938353087450363</v>
       </c>
       <c r="L23">
         <v>0.9580357519632987</v>
       </c>
       <c r="M23">
-        <v>0.9669304962239008</v>
+        <v>0.9669304962239003</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,13 +1257,13 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9636072047037757</v>
+        <v>0.9636072047037756</v>
       </c>
       <c r="D24">
         <v>0.9890933332328021</v>
       </c>
       <c r="E24">
-        <v>0.9524189820710838</v>
+        <v>0.9524189820710839</v>
       </c>
       <c r="F24">
         <v>0.9646168023244058</v>
@@ -1275,7 +1275,7 @@
         <v>1.030555513562442</v>
       </c>
       <c r="J24">
-        <v>0.9925818976349351</v>
+        <v>0.992581897634935</v>
       </c>
       <c r="K24">
         <v>1.003314728191412</v>
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9792372844015325</v>
+        <v>0.9792372844015333</v>
       </c>
       <c r="D25">
-        <v>1.000893760157195</v>
+        <v>1.000893760157196</v>
       </c>
       <c r="E25">
         <v>0.9642327656417116</v>
       </c>
       <c r="F25">
-        <v>0.9797034932062817</v>
+        <v>0.9797034932062821</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.036226698846597</v>
       </c>
       <c r="J25">
-        <v>1.004484185781018</v>
+        <v>1.004484185781019</v>
       </c>
       <c r="K25">
-        <v>1.013478217476317</v>
+        <v>1.013478217476318</v>
       </c>
       <c r="L25">
-        <v>0.9774129160676314</v>
+        <v>0.9774129160676318</v>
       </c>
       <c r="M25">
-        <v>0.9926252755946126</v>
+        <v>0.9926252755946132</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_31/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9908650123809473</v>
+        <v>0.9908650123809456</v>
       </c>
       <c r="D2">
-        <v>1.009690429605159</v>
+        <v>1.009690429605158</v>
       </c>
       <c r="E2">
-        <v>0.9731152360710501</v>
+        <v>0.9731152360710498</v>
       </c>
       <c r="F2">
-        <v>0.9909840941761927</v>
+        <v>0.9909840941761918</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040391883026055</v>
+        <v>1.040391883026054</v>
       </c>
       <c r="J2">
-        <v>1.01332242510082</v>
+        <v>1.013322425100819</v>
       </c>
       <c r="K2">
-        <v>1.021016392194074</v>
+        <v>1.021016392194072</v>
       </c>
       <c r="L2">
-        <v>0.9849622750672856</v>
+        <v>0.9849622750672854</v>
       </c>
       <c r="M2">
-        <v>1.002570480540792</v>
+        <v>1.002570480540791</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9988898223345645</v>
+        <v>0.9988898223345648</v>
       </c>
       <c r="D3">
         <v>1.015768281019529</v>
       </c>
       <c r="E3">
-        <v>0.9792930554811858</v>
+        <v>0.9792930554811859</v>
       </c>
       <c r="F3">
         <v>0.9987992701924</v>
@@ -474,7 +474,7 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043233617914839</v>
+        <v>1.043233617914838</v>
       </c>
       <c r="J3">
         <v>1.019410797733787</v>
@@ -483,7 +483,7 @@
         <v>1.026203302146318</v>
       </c>
       <c r="L3">
-        <v>0.9901979258717203</v>
+        <v>0.9901979258717204</v>
       </c>
       <c r="M3">
         <v>1.009447537670226</v>
@@ -500,10 +500,10 @@
         <v>1.00390813124586</v>
       </c>
       <c r="D4">
-        <v>1.019571254425666</v>
+        <v>1.019571254425667</v>
       </c>
       <c r="E4">
-        <v>0.9831765777757626</v>
+        <v>0.9831765777757631</v>
       </c>
       <c r="F4">
         <v>1.003699496629341</v>
@@ -518,7 +518,7 @@
         <v>1.023212392209478</v>
       </c>
       <c r="K4">
-        <v>1.029439073410323</v>
+        <v>1.029439073410324</v>
       </c>
       <c r="L4">
         <v>0.9934823789420668</v>
@@ -541,10 +541,10 @@
         <v>1.021140722997057</v>
       </c>
       <c r="E5">
-        <v>0.9847835058555174</v>
+        <v>0.9847835058555171</v>
       </c>
       <c r="F5">
-        <v>1.005724304933052</v>
+        <v>1.005724304933051</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.045717847692067</v>
       </c>
       <c r="J5">
-        <v>1.02477944023094</v>
+        <v>1.024779440230939</v>
       </c>
       <c r="K5">
         <v>1.030772145501145</v>
       </c>
       <c r="L5">
-        <v>0.9948398079022147</v>
+        <v>0.9948398079022145</v>
       </c>
       <c r="M5">
-        <v>1.015531250762659</v>
+        <v>1.015531250762658</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006324064003146</v>
+        <v>1.006324064003145</v>
       </c>
       <c r="D6">
-        <v>1.021402573971866</v>
+        <v>1.021402573971865</v>
       </c>
       <c r="E6">
-        <v>0.9850518519932036</v>
+        <v>0.9850518519932032</v>
       </c>
       <c r="F6">
-        <v>1.006062274427876</v>
+        <v>1.006062274427875</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.045838214600405</v>
       </c>
       <c r="J6">
-        <v>1.025040780059436</v>
+        <v>1.025040780059435</v>
       </c>
       <c r="K6">
-        <v>1.030994420309119</v>
+        <v>1.030994420309118</v>
       </c>
       <c r="L6">
-        <v>0.9950663947908029</v>
+        <v>0.9950663947908025</v>
       </c>
       <c r="M6">
-        <v>1.015827900019636</v>
+        <v>1.015827900019635</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -617,7 +617,7 @@
         <v>1.019592338652039</v>
       </c>
       <c r="E7">
-        <v>0.983198148651761</v>
+        <v>0.9831981486517613</v>
       </c>
       <c r="F7">
         <v>1.003726687865559</v>
@@ -629,16 +629,16 @@
         <v>1.045004702157229</v>
       </c>
       <c r="J7">
-        <v>1.023233451177884</v>
+        <v>1.023233451177885</v>
       </c>
       <c r="K7">
-        <v>1.029456991033735</v>
+        <v>1.029456991033736</v>
       </c>
       <c r="L7">
-        <v>0.9935006069965572</v>
+        <v>0.9935006069965573</v>
       </c>
       <c r="M7">
-        <v>1.01377735575719</v>
+        <v>1.013777355757191</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9936147274807905</v>
+        <v>0.9936147274807904</v>
       </c>
       <c r="D8">
         <v>1.011772466024583</v>
       </c>
       <c r="E8">
-        <v>0.9752276432822927</v>
+        <v>0.9752276432822928</v>
       </c>
       <c r="F8">
-        <v>0.9936591543700413</v>
+        <v>0.9936591543700409</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -670,7 +670,7 @@
         <v>1.015409788348891</v>
       </c>
       <c r="K8">
-        <v>1.022795298510496</v>
+        <v>1.022795298510497</v>
       </c>
       <c r="L8">
         <v>0.9867539671484391</v>
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9739640875757788</v>
+        <v>0.9739640875757772</v>
       </c>
       <c r="D9">
-        <v>0.9969091797867242</v>
+        <v>0.9969091797867226</v>
       </c>
       <c r="E9">
-        <v>0.9602310291093713</v>
+        <v>0.9602310291093702</v>
       </c>
       <c r="F9">
-        <v>0.974603984999868</v>
+        <v>0.9746039849998666</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034321743525448</v>
+        <v>1.034321743525447</v>
       </c>
       <c r="J9">
-        <v>1.000470970219863</v>
+        <v>1.000470970219861</v>
       </c>
       <c r="K9">
-        <v>1.010052603231774</v>
+        <v>1.010052603231772</v>
       </c>
       <c r="L9">
-        <v>0.97400406019868</v>
+        <v>0.9740040601986792</v>
       </c>
       <c r="M9">
-        <v>0.9881229869142313</v>
+        <v>0.9881229869142296</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9596728123193159</v>
+        <v>0.9596728123193151</v>
       </c>
       <c r="D10">
-        <v>0.9861281057873981</v>
+        <v>0.9861281057873972</v>
       </c>
       <c r="E10">
-        <v>0.9494678130742367</v>
+        <v>0.9494678130742368</v>
       </c>
       <c r="F10">
-        <v>0.9608325881974071</v>
+        <v>0.9608325881974065</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.02911714675187</v>
       </c>
       <c r="J10">
-        <v>0.9895831168908421</v>
+        <v>0.9895831168908412</v>
       </c>
       <c r="K10">
-        <v>1.000752421404829</v>
+        <v>1.000752421404828</v>
       </c>
       <c r="L10">
         <v>0.964813587852882</v>
       </c>
       <c r="M10">
-        <v>0.9759469615716273</v>
+        <v>0.9759469615716266</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9531459914727772</v>
+        <v>0.9531459914727745</v>
       </c>
       <c r="D11">
-        <v>0.9812141902249678</v>
+        <v>0.9812141902249653</v>
       </c>
       <c r="E11">
-        <v>0.9445920977709225</v>
+        <v>0.9445920977709216</v>
       </c>
       <c r="F11">
-        <v>0.9545665370031597</v>
+        <v>0.9545665370031576</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026722871873662</v>
+        <v>1.026722871873661</v>
       </c>
       <c r="J11">
-        <v>0.9846067554629938</v>
+        <v>0.9846067554629916</v>
       </c>
       <c r="K11">
-        <v>0.9964992933157875</v>
+        <v>0.9964992933157851</v>
       </c>
       <c r="L11">
-        <v>0.960640454344816</v>
+        <v>0.9606404543448152</v>
       </c>
       <c r="M11">
-        <v>0.9703993232619741</v>
+        <v>0.9703993232619719</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9506650631330221</v>
+        <v>0.9506650631330229</v>
       </c>
       <c r="D12">
-        <v>0.9793481182932524</v>
+        <v>0.9793481182932531</v>
       </c>
       <c r="E12">
-        <v>0.9427453406731117</v>
+        <v>0.942745340673112</v>
       </c>
       <c r="F12">
-        <v>0.9521885104903157</v>
+        <v>0.9521885104903164</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.025810324260414</v>
       </c>
       <c r="J12">
-        <v>0.98271475888078</v>
+        <v>0.9827147588807805</v>
       </c>
       <c r="K12">
-        <v>0.9948819673896332</v>
+        <v>0.9948819673896339</v>
       </c>
       <c r="L12">
-        <v>0.9590582859554655</v>
+        <v>0.9590582859554656</v>
       </c>
       <c r="M12">
-        <v>0.9682928397940934</v>
+        <v>0.968292839794094</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9511998925353278</v>
+        <v>0.9511998925353287</v>
       </c>
       <c r="D13">
-        <v>0.9797503141485733</v>
+        <v>0.9797503141485739</v>
       </c>
       <c r="E13">
-        <v>0.9431431514917858</v>
+        <v>0.943143151491786</v>
       </c>
       <c r="F13">
-        <v>0.9527009813873776</v>
+        <v>0.9527009813873779</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.026007155908911</v>
       </c>
       <c r="J13">
-        <v>0.9831226444806933</v>
+        <v>0.9831226444806942</v>
       </c>
       <c r="K13">
-        <v>0.9952306506272303</v>
+        <v>0.9952306506272309</v>
       </c>
       <c r="L13">
-        <v>0.9593991712058132</v>
+        <v>0.9593991712058133</v>
       </c>
       <c r="M13">
-        <v>0.968746841737268</v>
+        <v>0.9687468417372683</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9529421075658464</v>
+        <v>0.952942107565847</v>
       </c>
       <c r="D14">
-        <v>0.9810607978138318</v>
+        <v>0.9810607978138323</v>
       </c>
       <c r="E14">
-        <v>0.944440193810358</v>
+        <v>0.9444401938103582</v>
       </c>
       <c r="F14">
-        <v>0.9543710313629594</v>
+        <v>0.9543710313629599</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.026647926993989</v>
       </c>
       <c r="J14">
-        <v>0.9844512776831781</v>
+        <v>0.9844512776831785</v>
       </c>
       <c r="K14">
-        <v>0.9963663927149766</v>
+        <v>0.9963663927149768</v>
       </c>
       <c r="L14">
-        <v>0.960510345179387</v>
+        <v>0.9605103451793872</v>
       </c>
       <c r="M14">
-        <v>0.970226164267226</v>
+        <v>0.9702261642672266</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9540078606381671</v>
+        <v>0.954007860638171</v>
       </c>
       <c r="D15">
-        <v>0.9818626926843455</v>
+        <v>0.9818626926843486</v>
       </c>
       <c r="E15">
-        <v>0.9452345044551917</v>
+        <v>0.9452345044551931</v>
       </c>
       <c r="F15">
-        <v>0.9553931441779955</v>
+        <v>0.9553931441779984</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02703958438861</v>
+        <v>1.027039584388612</v>
       </c>
       <c r="J15">
-        <v>0.9852639837025806</v>
+        <v>0.9852639837025842</v>
       </c>
       <c r="K15">
-        <v>0.9970610725974869</v>
+        <v>0.9970610725974899</v>
       </c>
       <c r="L15">
-        <v>0.9611906278887501</v>
+        <v>0.9611906278887516</v>
       </c>
       <c r="M15">
-        <v>0.9711314031853444</v>
+        <v>0.9711314031853473</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9600983751680351</v>
+        <v>0.960098375168035</v>
       </c>
       <c r="D16">
-        <v>0.9864487297609352</v>
+        <v>0.986448729760935</v>
       </c>
       <c r="E16">
         <v>0.9497865881304053</v>
       </c>
       <c r="F16">
-        <v>0.9612416513918937</v>
+        <v>0.9612416513918929</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,7 +971,7 @@
         <v>1.029272913521837</v>
       </c>
       <c r="J16">
-        <v>0.9899075197309469</v>
+        <v>0.9899075197309466</v>
       </c>
       <c r="K16">
         <v>1.001029632782213</v>
@@ -980,7 +980,7 @@
         <v>0.9650862204271042</v>
       </c>
       <c r="M16">
-        <v>0.9763089723038296</v>
+        <v>0.9763089723038291</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.96382438522487</v>
+        <v>0.9638243852248721</v>
       </c>
       <c r="D17">
-        <v>0.9892570803135491</v>
+        <v>0.9892570803135511</v>
       </c>
       <c r="E17">
-        <v>0.952582152359608</v>
+        <v>0.9525821523596092</v>
       </c>
       <c r="F17">
-        <v>0.9648258477165507</v>
+        <v>0.9648258477165523</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030634797154545</v>
+        <v>1.030634797154546</v>
       </c>
       <c r="J17">
-        <v>0.9927474061354026</v>
+        <v>0.9927474061354047</v>
       </c>
       <c r="K17">
-        <v>1.003456130790921</v>
+        <v>1.003456130790923</v>
       </c>
       <c r="L17">
-        <v>0.9674760113717903</v>
+        <v>0.9674760113717914</v>
       </c>
       <c r="M17">
-        <v>0.9794800567687879</v>
+        <v>0.9794800567687895</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9659654628232773</v>
+        <v>0.9659654628232782</v>
       </c>
       <c r="D18">
-        <v>0.9908717374134901</v>
+        <v>0.9908717374134907</v>
       </c>
       <c r="E18">
-        <v>0.9541922489003782</v>
+        <v>0.9541922489003785</v>
       </c>
       <c r="F18">
-        <v>0.9668875960932189</v>
+        <v>0.9668875960932197</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031415746071787</v>
+        <v>1.031415746071788</v>
       </c>
       <c r="J18">
-        <v>0.9943789159620734</v>
+        <v>0.994378915962074</v>
       </c>
       <c r="K18">
-        <v>1.004849919074098</v>
+        <v>1.004849919074099</v>
       </c>
       <c r="L18">
-        <v>0.9688514806584564</v>
+        <v>0.9688514806584567</v>
       </c>
       <c r="M18">
-        <v>0.9813034666285759</v>
+        <v>0.9813034666285766</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9666902053041065</v>
+        <v>0.966690205304107</v>
       </c>
       <c r="D19">
-        <v>0.9914184331371912</v>
+        <v>0.9914184331371915</v>
       </c>
       <c r="E19">
-        <v>0.9547378660967598</v>
+        <v>0.9547378660967597</v>
       </c>
       <c r="F19">
-        <v>0.9675858453245032</v>
+        <v>0.9675858453245033</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.031679812070021</v>
       </c>
       <c r="J19">
-        <v>0.9949311046575766</v>
+        <v>0.9949311046575767</v>
       </c>
       <c r="K19">
         <v>1.005321609439328</v>
       </c>
       <c r="L19">
-        <v>0.9693174336979243</v>
+        <v>0.9693174336979241</v>
       </c>
       <c r="M19">
-        <v>0.9819208782346012</v>
+        <v>0.9819208782346013</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1108,13 +1108,13 @@
         <v>0.9634279928289312</v>
       </c>
       <c r="D20">
-        <v>0.9889582183184398</v>
+        <v>0.9889582183184401</v>
       </c>
       <c r="E20">
-        <v>0.952284358891995</v>
+        <v>0.9522843588919948</v>
       </c>
       <c r="F20">
-        <v>0.964444315583154</v>
+        <v>0.9644443155831546</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.030490081472803</v>
       </c>
       <c r="J20">
-        <v>0.9924453220580582</v>
+        <v>0.9924453220580585</v>
       </c>
       <c r="K20">
         <v>1.003198043189724</v>
       </c>
       <c r="L20">
-        <v>0.967221538579993</v>
+        <v>0.9672215385799927</v>
       </c>
       <c r="M20">
-        <v>0.9791425726883501</v>
+        <v>0.9791425726883505</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1146,13 +1146,13 @@
         <v>0.9524306808659679</v>
       </c>
       <c r="D21">
-        <v>0.9806760545705685</v>
+        <v>0.9806760545705681</v>
       </c>
       <c r="E21">
-        <v>0.9440592622686463</v>
+        <v>0.9440592622686469</v>
       </c>
       <c r="F21">
-        <v>0.9538806825995657</v>
+        <v>0.9538806825995662</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.026459894824743</v>
       </c>
       <c r="J21">
-        <v>0.9840612678290158</v>
+        <v>0.9840612678290155</v>
       </c>
       <c r="K21">
-        <v>0.9960330122267048</v>
+        <v>0.9960330122267046</v>
       </c>
       <c r="L21">
-        <v>0.9601840440440419</v>
+        <v>0.9601840440440423</v>
       </c>
       <c r="M21">
-        <v>0.9697918456337523</v>
+        <v>0.9697918456337524</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9451853628911525</v>
+        <v>0.9451853628911504</v>
       </c>
       <c r="D22">
-        <v>0.9752301110779246</v>
+        <v>0.9752301110779227</v>
       </c>
       <c r="E22">
-        <v>0.9386792109722178</v>
+        <v>0.9386792109722168</v>
       </c>
       <c r="F22">
-        <v>0.946943422261862</v>
+        <v>0.9469434222618606</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023790405095722</v>
+        <v>1.023790405095721</v>
       </c>
       <c r="J22">
-        <v>0.9785352827529779</v>
+        <v>0.9785352827529762</v>
       </c>
       <c r="K22">
-        <v>0.9913087695088845</v>
+        <v>0.9913087695088826</v>
       </c>
       <c r="L22">
-        <v>0.9555718492940364</v>
+        <v>0.9555718492940357</v>
       </c>
       <c r="M22">
-        <v>0.9636446742449633</v>
+        <v>0.9636446742449621</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9490597620729934</v>
+        <v>0.9490597620729947</v>
       </c>
       <c r="D23">
-        <v>0.9781412043339226</v>
+        <v>0.9781412043339237</v>
       </c>
       <c r="E23">
-        <v>0.9415523156318694</v>
+        <v>0.9415523156318693</v>
       </c>
       <c r="F23">
-        <v>0.950650896576858</v>
+        <v>0.9506508965768591</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.025219183337137</v>
       </c>
       <c r="J23">
-        <v>0.9814904350060651</v>
+        <v>0.9814904350060665</v>
       </c>
       <c r="K23">
-        <v>0.9938353087450363</v>
+        <v>0.9938353087450374</v>
       </c>
       <c r="L23">
         <v>0.9580357519632987</v>
       </c>
       <c r="M23">
-        <v>0.9669304962239003</v>
+        <v>0.9669304962239008</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,13 +1257,13 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9636072047037756</v>
+        <v>0.9636072047037757</v>
       </c>
       <c r="D24">
         <v>0.9890933332328021</v>
       </c>
       <c r="E24">
-        <v>0.9524189820710839</v>
+        <v>0.9524189820710838</v>
       </c>
       <c r="F24">
         <v>0.9646168023244058</v>
@@ -1275,7 +1275,7 @@
         <v>1.030555513562442</v>
       </c>
       <c r="J24">
-        <v>0.992581897634935</v>
+        <v>0.9925818976349351</v>
       </c>
       <c r="K24">
         <v>1.003314728191412</v>
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9792372844015333</v>
+        <v>0.9792372844015325</v>
       </c>
       <c r="D25">
-        <v>1.000893760157196</v>
+        <v>1.000893760157195</v>
       </c>
       <c r="E25">
         <v>0.9642327656417116</v>
       </c>
       <c r="F25">
-        <v>0.9797034932062821</v>
+        <v>0.9797034932062817</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.036226698846597</v>
       </c>
       <c r="J25">
-        <v>1.004484185781019</v>
+        <v>1.004484185781018</v>
       </c>
       <c r="K25">
-        <v>1.013478217476318</v>
+        <v>1.013478217476317</v>
       </c>
       <c r="L25">
-        <v>0.9774129160676318</v>
+        <v>0.9774129160676314</v>
       </c>
       <c r="M25">
-        <v>0.9926252755946132</v>
+        <v>0.9926252755946126</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_31/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9908650123809456</v>
+        <v>0.9935066908116388</v>
       </c>
       <c r="D2">
-        <v>1.009690429605158</v>
+        <v>1.011716767885793</v>
       </c>
       <c r="E2">
-        <v>0.9731152360710498</v>
+        <v>0.9739915821478856</v>
       </c>
       <c r="F2">
-        <v>0.9909840941761918</v>
+        <v>0.9929563806757485</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040391883026054</v>
+        <v>1.041538031911686</v>
       </c>
       <c r="J2">
-        <v>1.013322425100819</v>
+        <v>1.015883365494684</v>
       </c>
       <c r="K2">
-        <v>1.021016392194072</v>
+        <v>1.023015247663549</v>
       </c>
       <c r="L2">
-        <v>0.9849622750672854</v>
+        <v>0.9858255543353948</v>
       </c>
       <c r="M2">
-        <v>1.002570480540791</v>
+        <v>1.004514724414085</v>
+      </c>
+      <c r="N2">
+        <v>1.017326036397137</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9988898223345648</v>
+        <v>1.001511943178125</v>
       </c>
       <c r="D3">
-        <v>1.015768281019529</v>
+        <v>1.017782503684543</v>
       </c>
       <c r="E3">
-        <v>0.9792930554811859</v>
+        <v>0.9801580656414545</v>
       </c>
       <c r="F3">
-        <v>0.9987992701924</v>
+        <v>1.000754236798745</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043233617914838</v>
+        <v>1.044374452529614</v>
       </c>
       <c r="J3">
-        <v>1.019410797733787</v>
+        <v>1.021961475786445</v>
       </c>
       <c r="K3">
-        <v>1.026203302146318</v>
+        <v>1.02819279969924</v>
       </c>
       <c r="L3">
-        <v>0.9901979258717204</v>
+        <v>0.9910512849149439</v>
       </c>
       <c r="M3">
-        <v>1.009447537670226</v>
+        <v>1.011377476112365</v>
+      </c>
+      <c r="N3">
+        <v>1.023412778302682</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00390813124586</v>
+        <v>1.006518919147972</v>
       </c>
       <c r="D4">
-        <v>1.019571254425667</v>
+        <v>1.021578512501489</v>
       </c>
       <c r="E4">
-        <v>0.9831765777757631</v>
+        <v>0.9840349485500052</v>
       </c>
       <c r="F4">
-        <v>1.003699496629341</v>
+        <v>1.005644362889611</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044994975108313</v>
+        <v>1.046132840838819</v>
       </c>
       <c r="J4">
-        <v>1.023212392209478</v>
+        <v>1.025757327613249</v>
       </c>
       <c r="K4">
-        <v>1.029439073410324</v>
+        <v>1.031423296922998</v>
       </c>
       <c r="L4">
-        <v>0.9934823789420668</v>
+        <v>0.9943299548446668</v>
       </c>
       <c r="M4">
-        <v>1.013753476112332</v>
+        <v>1.015675139436001</v>
+      </c>
+      <c r="N4">
+        <v>1.02721402067447</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005978644162194</v>
+        <v>1.008584953539466</v>
       </c>
       <c r="D5">
-        <v>1.021140722997057</v>
+        <v>1.02314524292564</v>
       </c>
       <c r="E5">
-        <v>0.9847835058555171</v>
+        <v>0.9856392365474546</v>
       </c>
       <c r="F5">
-        <v>1.005724304933051</v>
+        <v>1.007665164590614</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045717847692067</v>
+        <v>1.046854567545835</v>
       </c>
       <c r="J5">
-        <v>1.024779440230939</v>
+        <v>1.027322155500369</v>
       </c>
       <c r="K5">
-        <v>1.030772145501145</v>
+        <v>1.032754321158681</v>
       </c>
       <c r="L5">
-        <v>0.9948398079022145</v>
+        <v>0.9956850908013073</v>
       </c>
       <c r="M5">
-        <v>1.015531250762658</v>
+        <v>1.017449647809166</v>
+      </c>
+      <c r="N5">
+        <v>1.028781070796678</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006324064003145</v>
+        <v>1.008929637364677</v>
       </c>
       <c r="D6">
-        <v>1.021402573971865</v>
+        <v>1.023406644758212</v>
       </c>
       <c r="E6">
-        <v>0.9850518519932032</v>
+        <v>0.9859071478545124</v>
       </c>
       <c r="F6">
-        <v>1.006062274427875</v>
+        <v>1.00800247473442</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045838214600405</v>
+        <v>1.046974747780798</v>
       </c>
       <c r="J6">
-        <v>1.025040780059435</v>
+        <v>1.027583133386714</v>
       </c>
       <c r="K6">
-        <v>1.030994420309118</v>
+        <v>1.032976261585441</v>
       </c>
       <c r="L6">
-        <v>0.9950663947908025</v>
+        <v>0.9959113004177539</v>
       </c>
       <c r="M6">
-        <v>1.015827900019635</v>
+        <v>1.017745760515733</v>
+      </c>
+      <c r="N6">
+        <v>1.029042419301557</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003935948328785</v>
+        <v>1.006546675302841</v>
       </c>
       <c r="D7">
-        <v>1.019592338652039</v>
+        <v>1.021599559418991</v>
       </c>
       <c r="E7">
-        <v>0.9831981486517613</v>
+        <v>0.9840564835741747</v>
       </c>
       <c r="F7">
-        <v>1.003726687865559</v>
+        <v>1.005671499678973</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045004702157229</v>
+        <v>1.046142552187192</v>
       </c>
       <c r="J7">
-        <v>1.023233451177885</v>
+        <v>1.025778356178915</v>
       </c>
       <c r="K7">
-        <v>1.029456991033736</v>
+        <v>1.031441186538944</v>
       </c>
       <c r="L7">
-        <v>0.9935006069965573</v>
+        <v>0.9943481517338985</v>
       </c>
       <c r="M7">
-        <v>1.013777355757191</v>
+        <v>1.015698974628689</v>
+      </c>
+      <c r="N7">
+        <v>1.027235079103111</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9936147274807904</v>
+        <v>0.996249502698051</v>
       </c>
       <c r="D8">
-        <v>1.011772466024583</v>
+        <v>1.013794515823137</v>
       </c>
       <c r="E8">
-        <v>0.9752276432822928</v>
+        <v>0.9761000042974496</v>
       </c>
       <c r="F8">
-        <v>0.9936591543700409</v>
+        <v>0.9956253419265232</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041368886380865</v>
+        <v>1.042513135374382</v>
       </c>
       <c r="J8">
-        <v>1.015409788348891</v>
+        <v>1.01796706111985</v>
       </c>
       <c r="K8">
-        <v>1.022795298510497</v>
+        <v>1.02479081823497</v>
       </c>
       <c r="L8">
-        <v>0.9867539671484391</v>
+        <v>0.9876137531001183</v>
       </c>
       <c r="M8">
-        <v>1.004925707065304</v>
+        <v>1.006864898639336</v>
+      </c>
+      <c r="N8">
+        <v>1.019412691109094</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9739640875757772</v>
+        <v>0.9766530166868588</v>
       </c>
       <c r="D9">
-        <v>0.9969091797867226</v>
+        <v>0.9989651225587761</v>
       </c>
       <c r="E9">
-        <v>0.9602310291093702</v>
+        <v>0.9611342609394022</v>
       </c>
       <c r="F9">
-        <v>0.9746039849998666</v>
+        <v>0.9766176800236668</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034321743525447</v>
+        <v>1.035481417961091</v>
       </c>
       <c r="J9">
-        <v>1.000470970219861</v>
+        <v>1.003058037944951</v>
       </c>
       <c r="K9">
-        <v>1.010052603231772</v>
+        <v>1.012075012271292</v>
       </c>
       <c r="L9">
-        <v>0.9740040601986792</v>
+        <v>0.9748910375048414</v>
       </c>
       <c r="M9">
-        <v>0.9881229869142296</v>
+        <v>0.9901018639672633</v>
+      </c>
+      <c r="N9">
+        <v>1.004482495411197</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9596728123193151</v>
+        <v>0.9624086285346033</v>
       </c>
       <c r="D10">
-        <v>0.9861281057873972</v>
+        <v>0.9882137003975214</v>
       </c>
       <c r="E10">
-        <v>0.9494678130742368</v>
+        <v>0.9503971885329666</v>
       </c>
       <c r="F10">
-        <v>0.9608325881974065</v>
+        <v>0.9628869316949418</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02911714675187</v>
+        <v>1.030290852332867</v>
       </c>
       <c r="J10">
-        <v>0.9895831168908412</v>
+        <v>0.992197384695822</v>
       </c>
       <c r="K10">
-        <v>1.000752421404828</v>
+        <v>1.002799071660214</v>
       </c>
       <c r="L10">
-        <v>0.964813587852882</v>
+        <v>0.9657237657456406</v>
       </c>
       <c r="M10">
-        <v>0.9759469615716266</v>
+        <v>0.9779602424232654</v>
+      </c>
+      <c r="N10">
+        <v>0.9936064187887206</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9531459914727745</v>
+        <v>0.9559055251953392</v>
       </c>
       <c r="D11">
-        <v>0.9812141902249653</v>
+        <v>0.9833148465624489</v>
       </c>
       <c r="E11">
-        <v>0.9445920977709216</v>
+        <v>0.9455345356958832</v>
       </c>
       <c r="F11">
-        <v>0.9545665370031576</v>
+        <v>0.9566413145737093</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026722871873661</v>
+        <v>1.027903828423142</v>
       </c>
       <c r="J11">
-        <v>0.9846067554629916</v>
+        <v>0.9872351281481659</v>
       </c>
       <c r="K11">
-        <v>0.9964992933157851</v>
+        <v>0.9985584326037276</v>
       </c>
       <c r="L11">
-        <v>0.9606404543448152</v>
+        <v>0.9615622655075957</v>
       </c>
       <c r="M11">
-        <v>0.9703993232619719</v>
+        <v>0.9724300078779657</v>
+      </c>
+      <c r="N11">
+        <v>0.9886371152675885</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9506650631330229</v>
+        <v>0.9534340143042306</v>
       </c>
       <c r="D12">
-        <v>0.9793481182932531</v>
+        <v>0.9814547635677172</v>
       </c>
       <c r="E12">
-        <v>0.942745340673112</v>
+        <v>0.9436929386565053</v>
       </c>
       <c r="F12">
-        <v>0.9521885104903164</v>
+        <v>0.9542713813253573</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025810324260414</v>
+        <v>1.026994182368396</v>
       </c>
       <c r="J12">
-        <v>0.9827147588807805</v>
+        <v>0.9853487852781775</v>
       </c>
       <c r="K12">
-        <v>0.9948819673896339</v>
+        <v>0.9969460996225562</v>
       </c>
       <c r="L12">
-        <v>0.9590582859554656</v>
+        <v>0.9599846988323807</v>
       </c>
       <c r="M12">
-        <v>0.968292839794094</v>
+        <v>0.970330434062079</v>
+      </c>
+      <c r="N12">
+        <v>0.986748093574358</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9511998925353287</v>
+        <v>0.9539667943683111</v>
       </c>
       <c r="D13">
-        <v>0.9797503141485739</v>
+        <v>0.9818556558052594</v>
       </c>
       <c r="E13">
-        <v>0.943143151491786</v>
+        <v>0.9440896278234857</v>
       </c>
       <c r="F13">
-        <v>0.9527009813873779</v>
+        <v>0.9547820919791844</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026007155908911</v>
+        <v>1.02719038161063</v>
       </c>
       <c r="J13">
-        <v>0.9831226444806942</v>
+        <v>0.9857554381685106</v>
       </c>
       <c r="K13">
-        <v>0.9952306506272309</v>
+        <v>0.9972936948210852</v>
       </c>
       <c r="L13">
-        <v>0.9593991712058133</v>
+        <v>0.9603245835192463</v>
       </c>
       <c r="M13">
-        <v>0.9687468417372683</v>
+        <v>0.9707829324435278</v>
+      </c>
+      <c r="N13">
+        <v>0.9871553239584391</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.952942107565847</v>
+        <v>0.9557024067137435</v>
       </c>
       <c r="D14">
-        <v>0.9810607978138323</v>
+        <v>0.9831619407541048</v>
       </c>
       <c r="E14">
-        <v>0.9444401938103582</v>
+        <v>0.945383051676717</v>
       </c>
       <c r="F14">
-        <v>0.9543710313629599</v>
+        <v>0.9564464671486089</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026647926993989</v>
+        <v>1.027829118929924</v>
       </c>
       <c r="J14">
-        <v>0.9844512776831785</v>
+        <v>0.9870801088193247</v>
       </c>
       <c r="K14">
-        <v>0.9963663927149768</v>
+        <v>0.998425937138769</v>
       </c>
       <c r="L14">
-        <v>0.9605103451793872</v>
+        <v>0.9614325307189399</v>
       </c>
       <c r="M14">
-        <v>0.9702261642672266</v>
+        <v>0.9722574105035412</v>
+      </c>
+      <c r="N14">
+        <v>0.9884818757935191</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.954007860638171</v>
+        <v>0.9567641753885484</v>
       </c>
       <c r="D15">
-        <v>0.9818626926843486</v>
+        <v>0.9839613029585725</v>
       </c>
       <c r="E15">
-        <v>0.9452345044551931</v>
+        <v>0.9461751752547765</v>
       </c>
       <c r="F15">
-        <v>0.9553931441779984</v>
+        <v>0.957465152823149</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027039584388612</v>
+        <v>1.028219551918395</v>
       </c>
       <c r="J15">
-        <v>0.9852639837025842</v>
+        <v>0.9878904305110237</v>
       </c>
       <c r="K15">
-        <v>0.9970610725974899</v>
+        <v>0.9991185094521711</v>
       </c>
       <c r="L15">
-        <v>0.9611906278887516</v>
+        <v>0.9621108639124556</v>
       </c>
       <c r="M15">
-        <v>0.9711314031853473</v>
+        <v>0.9731597258864032</v>
+      </c>
+      <c r="N15">
+        <v>0.9892933482349652</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.960098375168035</v>
+        <v>0.9628326968748157</v>
       </c>
       <c r="D16">
-        <v>0.986448729760935</v>
+        <v>0.9885333764481151</v>
       </c>
       <c r="E16">
-        <v>0.9497865881304053</v>
+        <v>0.9507151371046197</v>
       </c>
       <c r="F16">
-        <v>0.9612416513918929</v>
+        <v>0.9632947046581867</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029272913521837</v>
+        <v>1.030446165182392</v>
       </c>
       <c r="J16">
-        <v>0.9899075197309466</v>
+        <v>0.992520905676295</v>
       </c>
       <c r="K16">
-        <v>1.001029632782213</v>
+        <v>1.00307550054203</v>
       </c>
       <c r="L16">
-        <v>0.9650862204271042</v>
+        <v>0.965995663085095</v>
       </c>
       <c r="M16">
-        <v>0.9763089723038291</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9783211564378493</v>
+      </c>
+      <c r="N16">
+        <v>0.9939303992060946</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9638243852248721</v>
+        <v>0.9665458858982648</v>
       </c>
       <c r="D17">
-        <v>0.9892570803135511</v>
+        <v>0.9913336015402988</v>
       </c>
       <c r="E17">
-        <v>0.9525821523596092</v>
+        <v>0.9535035936558736</v>
       </c>
       <c r="F17">
-        <v>0.9648258477165523</v>
+        <v>0.9668678186979744</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030634797154546</v>
+        <v>1.03180417097545</v>
       </c>
       <c r="J17">
-        <v>0.9927474061354047</v>
+        <v>0.9953532637100269</v>
       </c>
       <c r="K17">
-        <v>1.003456130790923</v>
+        <v>1.005495309799655</v>
       </c>
       <c r="L17">
-        <v>0.9674760113717914</v>
+        <v>0.9683791355071674</v>
       </c>
       <c r="M17">
-        <v>0.9794800567687895</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9814828324172333</v>
+      </c>
+      <c r="N17">
+        <v>0.9967667795131103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9659654628232782</v>
+        <v>0.9686798072963426</v>
       </c>
       <c r="D18">
-        <v>0.9908717374134907</v>
+        <v>0.9929437288810319</v>
       </c>
       <c r="E18">
-        <v>0.9541922489003785</v>
+        <v>0.9551097088760735</v>
       </c>
       <c r="F18">
-        <v>0.9668875960932197</v>
+        <v>0.9689233702443997</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031415746071788</v>
+        <v>1.032582968943816</v>
       </c>
       <c r="J18">
-        <v>0.994378915962074</v>
+        <v>0.9969806018032203</v>
       </c>
       <c r="K18">
-        <v>1.004849919074099</v>
+        <v>1.0068853846076</v>
       </c>
       <c r="L18">
-        <v>0.9688514806584567</v>
+        <v>0.9697510691629438</v>
       </c>
       <c r="M18">
-        <v>0.9813034666285766</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9833009909627236</v>
+      </c>
+      <c r="N18">
+        <v>0.9983964286130542</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.966690205304107</v>
+        <v>0.9694021617963374</v>
       </c>
       <c r="D19">
-        <v>0.9914184331371915</v>
+        <v>0.9934889140196939</v>
       </c>
       <c r="E19">
-        <v>0.9547378660967597</v>
+        <v>0.9556539951966565</v>
       </c>
       <c r="F19">
-        <v>0.9675858453245033</v>
+        <v>0.9696195497739871</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031679812070021</v>
+        <v>1.032846319492498</v>
       </c>
       <c r="J19">
-        <v>0.9949311046575767</v>
+        <v>0.9975314035292115</v>
       </c>
       <c r="K19">
-        <v>1.005321609439328</v>
+        <v>1.007355839192654</v>
       </c>
       <c r="L19">
-        <v>0.9693174336979241</v>
+        <v>0.9702158409303996</v>
       </c>
       <c r="M19">
-        <v>0.9819208782346013</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9839166502838244</v>
+      </c>
+      <c r="N19">
+        <v>0.9989480125406741</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9634279928289312</v>
+        <v>0.9661508351468965</v>
       </c>
       <c r="D20">
-        <v>0.9889582183184401</v>
+        <v>0.9910355892479752</v>
       </c>
       <c r="E20">
-        <v>0.9522843588919948</v>
+        <v>0.9532065454608863</v>
       </c>
       <c r="F20">
-        <v>0.9644443155831546</v>
+        <v>0.9664874474382501</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030490081472803</v>
+        <v>1.031659859669464</v>
       </c>
       <c r="J20">
-        <v>0.9924453220580585</v>
+        <v>0.995051964236181</v>
       </c>
       <c r="K20">
-        <v>1.003198043189724</v>
+        <v>1.005237920041285</v>
       </c>
       <c r="L20">
-        <v>0.9672215385799927</v>
+        <v>0.9681253248579463</v>
       </c>
       <c r="M20">
-        <v>0.9791425726883505</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9811463328703177</v>
+      </c>
+      <c r="N20">
+        <v>0.996465052159452</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9524306808659679</v>
+        <v>0.9551929066927435</v>
       </c>
       <c r="D21">
-        <v>0.9806760545705681</v>
+        <v>0.9827784224860169</v>
       </c>
       <c r="E21">
-        <v>0.9440592622686469</v>
+        <v>0.9450031767530046</v>
       </c>
       <c r="F21">
-        <v>0.9538806825995662</v>
+        <v>0.9559577748720924</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026459894824743</v>
+        <v>1.027641679614617</v>
       </c>
       <c r="J21">
-        <v>0.9840612678290155</v>
+        <v>0.9866912537964231</v>
       </c>
       <c r="K21">
-        <v>0.9960330122267046</v>
+        <v>0.9980935769713756</v>
       </c>
       <c r="L21">
-        <v>0.9601840440440423</v>
+        <v>0.9611071716553269</v>
       </c>
       <c r="M21">
-        <v>0.9697918456337524</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9718245055278679</v>
+      </c>
+      <c r="N21">
+        <v>0.9880924685518826</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9451853628911504</v>
+        <v>0.9479759312302575</v>
       </c>
       <c r="D22">
-        <v>0.9752301110779227</v>
+        <v>0.9773505182687163</v>
       </c>
       <c r="E22">
-        <v>0.9386792109722168</v>
+        <v>0.9396386004578932</v>
       </c>
       <c r="F22">
-        <v>0.9469434222618606</v>
+        <v>0.9490448305026006</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023790405095721</v>
+        <v>1.024980965200451</v>
       </c>
       <c r="J22">
-        <v>0.9785352827529762</v>
+        <v>0.9811823885730233</v>
       </c>
       <c r="K22">
-        <v>0.9913087695088826</v>
+        <v>0.9933844267101954</v>
       </c>
       <c r="L22">
-        <v>0.9555718492940357</v>
+        <v>0.9565087895555699</v>
       </c>
       <c r="M22">
-        <v>0.9636446742449621</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9656981264603894</v>
+      </c>
+      <c r="N22">
+        <v>0.9825757801079902</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9490597620729947</v>
+        <v>0.9518349283297907</v>
       </c>
       <c r="D23">
-        <v>0.9781412043339237</v>
+        <v>0.9802518042826167</v>
       </c>
       <c r="E23">
-        <v>0.9415523156318693</v>
+        <v>0.942503311174296</v>
       </c>
       <c r="F23">
-        <v>0.9506508965768591</v>
+        <v>0.9527391026382597</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025219183337137</v>
+        <v>1.026404962612137</v>
       </c>
       <c r="J23">
-        <v>0.9814904350060665</v>
+        <v>0.9841282077814444</v>
       </c>
       <c r="K23">
-        <v>0.9938353087450374</v>
+        <v>0.9959027456884281</v>
       </c>
       <c r="L23">
-        <v>0.9580357519632987</v>
+        <v>0.9589651965338354</v>
       </c>
       <c r="M23">
-        <v>0.9669304962239008</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9689726501856033</v>
+      </c>
+      <c r="N23">
+        <v>0.9855257827175772</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9636072047037757</v>
+        <v>0.9663294398018163</v>
       </c>
       <c r="D24">
-        <v>0.9890933332328021</v>
+        <v>0.9911703195746289</v>
       </c>
       <c r="E24">
-        <v>0.9524189820710838</v>
+        <v>0.953340831378477</v>
       </c>
       <c r="F24">
-        <v>0.9646168023244058</v>
+        <v>0.966659408810317</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030555513562442</v>
+        <v>1.031725108698599</v>
       </c>
       <c r="J24">
-        <v>0.9925818976349351</v>
+        <v>0.9951881846110914</v>
       </c>
       <c r="K24">
-        <v>1.003314728191412</v>
+        <v>1.005354289140951</v>
       </c>
       <c r="L24">
-        <v>0.9673365806924415</v>
+        <v>0.9682400673166329</v>
       </c>
       <c r="M24">
-        <v>0.9792951479458708</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9812984625336517</v>
+      </c>
+      <c r="N24">
+        <v>0.9966014659829193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9792372844015325</v>
+        <v>0.9819105568956186</v>
       </c>
       <c r="D25">
-        <v>1.000893760157195</v>
+        <v>1.002939853544723</v>
       </c>
       <c r="E25">
-        <v>0.9642327656417116</v>
+        <v>0.9651271570870144</v>
       </c>
       <c r="F25">
-        <v>0.9797034932062817</v>
+        <v>0.9817035251265767</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036226698846597</v>
+        <v>1.037381806567711</v>
       </c>
       <c r="J25">
-        <v>1.004484185781018</v>
+        <v>1.007062424699472</v>
       </c>
       <c r="K25">
-        <v>1.013478217476317</v>
+        <v>1.015492702856118</v>
       </c>
       <c r="L25">
-        <v>0.9774129160676314</v>
+        <v>0.97829207951231</v>
       </c>
       <c r="M25">
-        <v>0.9926252755946126</v>
+        <v>0.994592669781084</v>
+      </c>
+      <c r="N25">
+        <v>1.00849256885422</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_31/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9935066908116388</v>
+        <v>1.024620473965764</v>
       </c>
       <c r="D2">
-        <v>1.011716767885793</v>
+        <v>1.040875675392577</v>
       </c>
       <c r="E2">
-        <v>0.9739915821478856</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9929563806757485</v>
+        <v>1.045204633632408</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041538031911686</v>
+        <v>1.052575775697339</v>
       </c>
       <c r="J2">
-        <v>1.015883365494684</v>
+        <v>1.046088925972533</v>
       </c>
       <c r="K2">
-        <v>1.023015247663549</v>
+        <v>1.051793470492299</v>
       </c>
       <c r="L2">
-        <v>0.9858255543353948</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.004514724414085</v>
+        <v>1.056068169296468</v>
       </c>
       <c r="N2">
-        <v>1.017326036397137</v>
+        <v>1.047574492235491</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001511943178125</v>
+        <v>1.032637478910631</v>
       </c>
       <c r="D3">
-        <v>1.017782503684543</v>
+        <v>1.047202617586241</v>
       </c>
       <c r="E3">
-        <v>0.9801580656414545</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.000754236798745</v>
+        <v>1.052080825775088</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044374452529614</v>
+        <v>1.055251190014461</v>
       </c>
       <c r="J3">
-        <v>1.021961475786445</v>
+        <v>1.052276297038535</v>
       </c>
       <c r="K3">
-        <v>1.02819279969924</v>
+        <v>1.057265158418895</v>
       </c>
       <c r="L3">
-        <v>0.9910512849149439</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.011377476112365</v>
+        <v>1.062088021960862</v>
       </c>
       <c r="N3">
-        <v>1.023412778302682</v>
+        <v>1.053770650078108</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006518919147972</v>
+        <v>1.03766080982185</v>
       </c>
       <c r="D4">
-        <v>1.021578512501489</v>
+        <v>1.051169267472601</v>
       </c>
       <c r="E4">
-        <v>0.9840349485500052</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.005644362889611</v>
+        <v>1.056395049880002</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046132840838819</v>
+        <v>1.056914913201042</v>
       </c>
       <c r="J4">
-        <v>1.025757327613249</v>
+        <v>1.056147859308643</v>
       </c>
       <c r="K4">
-        <v>1.031423296922998</v>
+        <v>1.060686989331445</v>
       </c>
       <c r="L4">
-        <v>0.9943299548446668</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.015675139436001</v>
+        <v>1.065857341127814</v>
       </c>
       <c r="N4">
-        <v>1.02721402067447</v>
+        <v>1.057647710410714</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008584953539466</v>
+        <v>1.039735622703574</v>
       </c>
       <c r="D5">
-        <v>1.02314524292564</v>
+        <v>1.052808069074945</v>
       </c>
       <c r="E5">
-        <v>0.9856392365474546</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.007665164590614</v>
+        <v>1.058178230339747</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046854567545835</v>
+        <v>1.057598987251442</v>
       </c>
       <c r="J5">
-        <v>1.027322155500369</v>
+        <v>1.057745602564448</v>
       </c>
       <c r="K5">
-        <v>1.032754321158681</v>
+        <v>1.062098648083005</v>
       </c>
       <c r="L5">
-        <v>0.9956850908013073</v>
+        <v>0.9715596031702913</v>
       </c>
       <c r="M5">
-        <v>1.017449647809166</v>
+        <v>1.067413476529512</v>
       </c>
       <c r="N5">
-        <v>1.028781070796678</v>
+        <v>1.059247722645206</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008929637364677</v>
+        <v>1.040081886986089</v>
       </c>
       <c r="D6">
-        <v>1.023406644758212</v>
+        <v>1.053081590157285</v>
       </c>
       <c r="E6">
-        <v>0.9859071478545124</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="F6">
-        <v>1.00800247473442</v>
+        <v>1.058475894794907</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046974747780798</v>
+        <v>1.057712967599016</v>
       </c>
       <c r="J6">
-        <v>1.027583133386714</v>
+        <v>1.058012167844379</v>
       </c>
       <c r="K6">
-        <v>1.032976261585441</v>
+        <v>1.062334137920903</v>
       </c>
       <c r="L6">
-        <v>0.9959113004177539</v>
+        <v>0.9717150950965047</v>
       </c>
       <c r="M6">
-        <v>1.017745760515733</v>
+        <v>1.067673133643969</v>
       </c>
       <c r="N6">
-        <v>1.029042419301557</v>
+        <v>1.05951466647841</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006546675302841</v>
+        <v>1.037688676031592</v>
       </c>
       <c r="D7">
-        <v>1.021599559418991</v>
+        <v>1.051191276161584</v>
       </c>
       <c r="E7">
-        <v>0.9840564835741747</v>
+        <v>0.9600397355691361</v>
       </c>
       <c r="F7">
-        <v>1.005671499678973</v>
+        <v>1.056418994441989</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046142552187192</v>
+        <v>1.056924113171299</v>
       </c>
       <c r="J7">
-        <v>1.025778356178915</v>
+        <v>1.056169323557528</v>
       </c>
       <c r="K7">
-        <v>1.031441186538944</v>
+        <v>1.06070595566236</v>
       </c>
       <c r="L7">
-        <v>0.9943481517338985</v>
+        <v>0.9706424616290571</v>
       </c>
       <c r="M7">
-        <v>1.015698974628689</v>
+        <v>1.065878244129112</v>
       </c>
       <c r="N7">
-        <v>1.027235079103111</v>
+        <v>1.057669205141295</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.996249502698051</v>
+        <v>1.027365321206291</v>
       </c>
       <c r="D8">
-        <v>1.013794515823137</v>
+        <v>1.043041326303522</v>
       </c>
       <c r="E8">
-        <v>0.9761000042974496</v>
+        <v>0.9542328392922299</v>
       </c>
       <c r="F8">
-        <v>0.9956253419265232</v>
+        <v>1.047557610358289</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042513135374382</v>
+        <v>1.053494410097762</v>
       </c>
       <c r="J8">
-        <v>1.01796706111985</v>
+        <v>1.048208435290646</v>
       </c>
       <c r="K8">
-        <v>1.02479081823497</v>
+        <v>1.053668207370583</v>
       </c>
       <c r="L8">
-        <v>0.9876137531001183</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.006864898639336</v>
+        <v>1.058129729002274</v>
       </c>
       <c r="N8">
-        <v>1.019412691109094</v>
+        <v>1.049697011499947</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9766530166868588</v>
+        <v>1.007800106706577</v>
       </c>
       <c r="D9">
-        <v>0.9989651225587761</v>
+        <v>1.027619824922357</v>
       </c>
       <c r="E9">
-        <v>0.9611342609394022</v>
+        <v>0.9435740419923924</v>
       </c>
       <c r="F9">
-        <v>0.9766176800236668</v>
+        <v>1.030815885022134</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035481417961091</v>
+        <v>1.04689449268035</v>
       </c>
       <c r="J9">
-        <v>1.003058037944951</v>
+        <v>1.033080398260037</v>
       </c>
       <c r="K9">
-        <v>1.012075012271292</v>
+        <v>1.040280137898556</v>
       </c>
       <c r="L9">
-        <v>0.9748910375048414</v>
+        <v>0.9576541208832517</v>
       </c>
       <c r="M9">
-        <v>0.9901018639672633</v>
+        <v>1.043428026020552</v>
       </c>
       <c r="N9">
-        <v>1.004482495411197</v>
+        <v>1.034547490921544</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9624086285346033</v>
+        <v>0.9936467141020902</v>
       </c>
       <c r="D10">
-        <v>0.9882137003975214</v>
+        <v>1.016490308150421</v>
       </c>
       <c r="E10">
-        <v>0.9503971885329666</v>
+        <v>0.9361465105547279</v>
       </c>
       <c r="F10">
-        <v>0.9628869316949418</v>
+        <v>1.018750899064603</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030290852332867</v>
+        <v>1.042057192217277</v>
       </c>
       <c r="J10">
-        <v>0.992197384695822</v>
+        <v>1.022114689376853</v>
       </c>
       <c r="K10">
-        <v>1.002799071660214</v>
+        <v>1.03056807412763</v>
       </c>
       <c r="L10">
-        <v>0.9657237657456406</v>
+        <v>0.9517730114689356</v>
       </c>
       <c r="M10">
-        <v>0.9779602424232654</v>
+        <v>1.032789656963944</v>
       </c>
       <c r="N10">
-        <v>0.9936064187887206</v>
+        <v>1.023566209473962</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9559055251953392</v>
+        <v>0.9872050806885606</v>
       </c>
       <c r="D11">
-        <v>0.9833148465624489</v>
+        <v>1.011433687567972</v>
       </c>
       <c r="E11">
-        <v>0.9455345356958832</v>
+        <v>0.9328454960016259</v>
       </c>
       <c r="F11">
-        <v>0.9566413145737093</v>
+        <v>1.01327328031244</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027903828423142</v>
+        <v>1.039841978451006</v>
       </c>
       <c r="J11">
-        <v>0.9872351281481659</v>
+        <v>1.017120003562811</v>
       </c>
       <c r="K11">
-        <v>0.9985584326037276</v>
+        <v>1.026143155133295</v>
       </c>
       <c r="L11">
-        <v>0.9615622655075957</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9724300078779657</v>
+        <v>1.027949149214585</v>
       </c>
       <c r="N11">
-        <v>0.9886371152675885</v>
+        <v>1.018564430633165</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9534340143042306</v>
+        <v>0.9847603178572066</v>
       </c>
       <c r="D12">
-        <v>0.9814547635677172</v>
+        <v>1.009516132353749</v>
       </c>
       <c r="E12">
-        <v>0.9436929386565053</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.9542713813253573</v>
+        <v>1.011196672506319</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026994182368396</v>
+        <v>1.038999334712556</v>
       </c>
       <c r="J12">
-        <v>0.9853487852781775</v>
+        <v>1.015223951482757</v>
       </c>
       <c r="K12">
-        <v>0.9969460996225562</v>
+        <v>1.024463261314247</v>
       </c>
       <c r="L12">
-        <v>0.9599846988323807</v>
+        <v>0.9481721277252509</v>
       </c>
       <c r="M12">
-        <v>0.970330434062079</v>
+        <v>1.026112460437542</v>
       </c>
       <c r="N12">
-        <v>0.986748093574358</v>
+        <v>1.016665685941677</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9539667943683111</v>
+        <v>0.9852871720199298</v>
       </c>
       <c r="D13">
-        <v>0.9818556558052594</v>
+        <v>1.009929296959077</v>
       </c>
       <c r="E13">
-        <v>0.9440896278234857</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9547820919791844</v>
+        <v>1.01164408045524</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02719038161063</v>
+        <v>1.039181011190922</v>
       </c>
       <c r="J13">
-        <v>0.9857554381685106</v>
+        <v>1.015632574290747</v>
       </c>
       <c r="K13">
-        <v>0.9972936948210852</v>
+        <v>1.024825304396342</v>
       </c>
       <c r="L13">
-        <v>0.9603245835192463</v>
+        <v>0.9483836088965216</v>
       </c>
       <c r="M13">
-        <v>0.9707829324435278</v>
+        <v>1.026508250786819</v>
       </c>
       <c r="N13">
-        <v>0.9871553239584391</v>
+        <v>1.017074889040924</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9557024067137435</v>
+        <v>0.9870040893655964</v>
       </c>
       <c r="D14">
-        <v>0.9831619407541048</v>
+        <v>1.011276006448767</v>
       </c>
       <c r="E14">
-        <v>0.945383051676717</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="F14">
-        <v>0.9564464671486089</v>
+        <v>1.013102508201483</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027829118929924</v>
+        <v>1.039772740136696</v>
       </c>
       <c r="J14">
-        <v>0.9870801088193247</v>
+        <v>1.016964131513284</v>
       </c>
       <c r="K14">
-        <v>0.998425937138769</v>
+        <v>1.02600505554481</v>
       </c>
       <c r="L14">
-        <v>0.9614325307189399</v>
+        <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9722574105035412</v>
+        <v>1.027798139982321</v>
       </c>
       <c r="N14">
-        <v>0.9884818757935191</v>
+        <v>1.018408337227449</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9567641753885484</v>
+        <v>0.9880548785839122</v>
       </c>
       <c r="D15">
-        <v>0.9839613029585725</v>
+        <v>1.012100433371702</v>
       </c>
       <c r="E15">
-        <v>0.9461751752547765</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>0.957465152823149</v>
+        <v>1.01399540483806</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028219551918395</v>
+        <v>1.040134643428932</v>
       </c>
       <c r="J15">
-        <v>0.9878904305110237</v>
+        <v>1.017779018595247</v>
       </c>
       <c r="K15">
-        <v>0.9991185094521711</v>
+        <v>1.026727024501575</v>
       </c>
       <c r="L15">
-        <v>0.9621108639124556</v>
+        <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9731597258864032</v>
+        <v>1.028587638981251</v>
       </c>
       <c r="N15">
-        <v>0.9892933482349652</v>
+        <v>1.019224381542537</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9628326968748157</v>
+        <v>0.9940672159758858</v>
       </c>
       <c r="D16">
-        <v>0.9885333764481151</v>
+        <v>1.016820598669276</v>
       </c>
       <c r="E16">
-        <v>0.9507151371046197</v>
+        <v>0.9363637346017256</v>
       </c>
       <c r="F16">
-        <v>0.9632947046581867</v>
+        <v>1.019108771042651</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030446165182392</v>
+        <v>1.042201528234946</v>
       </c>
       <c r="J16">
-        <v>0.992520905676295</v>
+        <v>1.022440667704129</v>
       </c>
       <c r="K16">
-        <v>1.00307550054203</v>
+        <v>1.030856845268927</v>
       </c>
       <c r="L16">
-        <v>0.965995663085095</v>
+        <v>0.9519451749175714</v>
       </c>
       <c r="M16">
-        <v>0.9783211564378493</v>
+        <v>1.033105683523574</v>
       </c>
       <c r="N16">
-        <v>0.9939303992060946</v>
+        <v>1.023892650727853</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9665458858982648</v>
+        <v>0.9977514528731397</v>
       </c>
       <c r="D17">
-        <v>0.9913336015402988</v>
+        <v>1.019715457707913</v>
       </c>
       <c r="E17">
-        <v>0.9535035936558736</v>
+        <v>0.9382760156855667</v>
       </c>
       <c r="F17">
-        <v>0.9668678186979744</v>
+        <v>1.022245822448639</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03180417097545</v>
+        <v>1.043464614426818</v>
       </c>
       <c r="J17">
-        <v>0.9953532637100269</v>
+        <v>1.025296314507458</v>
       </c>
       <c r="K17">
-        <v>1.005495309799655</v>
+        <v>1.033386414047806</v>
       </c>
       <c r="L17">
-        <v>0.9683791355071674</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>0.9814828324172333</v>
+        <v>1.035874729403002</v>
       </c>
       <c r="N17">
-        <v>0.9967667795131103</v>
+        <v>1.026752352877189</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9686798072963426</v>
+        <v>0.9998705692433909</v>
       </c>
       <c r="D18">
-        <v>0.9929437288810319</v>
+        <v>1.021381338646056</v>
       </c>
       <c r="E18">
-        <v>0.9551097088760735</v>
+        <v>0.9393832867215686</v>
       </c>
       <c r="F18">
-        <v>0.9689233702443997</v>
+        <v>1.024051453709711</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032582968943816</v>
+        <v>1.04418983841726</v>
       </c>
       <c r="J18">
-        <v>0.9969806018032203</v>
+        <v>1.0269384672084</v>
       </c>
       <c r="K18">
-        <v>1.0068853846076</v>
+        <v>1.03484093366715</v>
       </c>
       <c r="L18">
-        <v>0.9697510691629438</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9833009909627236</v>
+        <v>1.037467552245945</v>
       </c>
       <c r="N18">
-        <v>0.9983964286130542</v>
+        <v>1.028396837623325</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9694021617963374</v>
+        <v>1.000588212732294</v>
       </c>
       <c r="D19">
-        <v>0.9934889140196939</v>
+        <v>1.021945622365858</v>
       </c>
       <c r="E19">
-        <v>0.9556539951966565</v>
+        <v>0.9397594814684963</v>
       </c>
       <c r="F19">
-        <v>0.9696195497739871</v>
+        <v>1.024663139369377</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032846319492498</v>
+        <v>1.044435215762771</v>
       </c>
       <c r="J19">
-        <v>0.9975314035292115</v>
+        <v>1.027494519106019</v>
       </c>
       <c r="K19">
-        <v>1.007355839192654</v>
+        <v>1.035333428914814</v>
       </c>
       <c r="L19">
-        <v>0.9702158409303996</v>
+        <v>0.9546352493816589</v>
       </c>
       <c r="M19">
-        <v>0.9839166502838244</v>
+        <v>1.038006978309026</v>
       </c>
       <c r="N19">
-        <v>0.9989480125406741</v>
+        <v>1.028953679178419</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9661508351468965</v>
+        <v>0.9973592891302273</v>
       </c>
       <c r="D20">
-        <v>0.9910355892479752</v>
+        <v>1.019407233164107</v>
       </c>
       <c r="E20">
-        <v>0.9532065454608863</v>
+        <v>0.9380716924660144</v>
       </c>
       <c r="F20">
-        <v>0.9664874474382501</v>
+        <v>1.021911771706975</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031659859669464</v>
+        <v>1.043330299505391</v>
       </c>
       <c r="J20">
-        <v>0.995051964236181</v>
+        <v>1.02499238665198</v>
       </c>
       <c r="K20">
-        <v>1.005237920041285</v>
+        <v>1.03311720299642</v>
       </c>
       <c r="L20">
-        <v>0.9681253248579463</v>
+        <v>0.9532985019057445</v>
       </c>
       <c r="M20">
-        <v>0.9811463328703177</v>
+        <v>1.035579969126623</v>
       </c>
       <c r="N20">
-        <v>0.996465052159452</v>
+        <v>1.026447993409296</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9551929066927435</v>
+        <v>0.9864999809499421</v>
       </c>
       <c r="D21">
-        <v>0.9827784224860169</v>
+        <v>1.010880550759406</v>
       </c>
       <c r="E21">
-        <v>0.9450031767530046</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9559577748720924</v>
+        <v>1.012674230582209</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027641679614617</v>
+        <v>1.03959905252297</v>
       </c>
       <c r="J21">
-        <v>0.9866912537964231</v>
+        <v>1.016573180604942</v>
       </c>
       <c r="K21">
-        <v>0.9980935769713756</v>
+        <v>1.025658678739712</v>
       </c>
       <c r="L21">
-        <v>0.9611071716553269</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9718245055278679</v>
+        <v>1.027419399442419</v>
       </c>
       <c r="N21">
-        <v>0.9880924685518826</v>
+        <v>1.018016831123975</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9479759312302575</v>
+        <v>0.979368073550741</v>
       </c>
       <c r="D22">
-        <v>0.9773505182687163</v>
+        <v>1.005289895443764</v>
       </c>
       <c r="E22">
-        <v>0.9396386004578932</v>
+        <v>0.9288972953651159</v>
       </c>
       <c r="F22">
-        <v>0.9490448305026006</v>
+        <v>1.006620981575447</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024980965200451</v>
+        <v>1.037137398105221</v>
       </c>
       <c r="J22">
-        <v>0.9811823885730233</v>
+        <v>1.011041312739448</v>
       </c>
       <c r="K22">
-        <v>0.9933844267101954</v>
+        <v>1.020757281845274</v>
       </c>
       <c r="L22">
-        <v>0.9565087895555699</v>
+        <v>0.9460223821572513</v>
       </c>
       <c r="M22">
-        <v>0.9656981264603894</v>
+        <v>1.022062406785542</v>
       </c>
       <c r="N22">
-        <v>0.9825757801079902</v>
+        <v>1.012477107371598</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9518349283297907</v>
+        <v>0.9831795491501284</v>
       </c>
       <c r="D23">
-        <v>0.9802518042826167</v>
+        <v>1.008276726172772</v>
       </c>
       <c r="E23">
-        <v>0.942503311174296</v>
+        <v>0.9308081199963312</v>
       </c>
       <c r="F23">
-        <v>0.9527391026382597</v>
+        <v>1.009854630450179</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026404962612137</v>
+        <v>1.038453964578115</v>
       </c>
       <c r="J23">
-        <v>0.9841282077814444</v>
+        <v>1.013997869907008</v>
       </c>
       <c r="K23">
-        <v>0.9959027456884281</v>
+        <v>1.023376928238725</v>
       </c>
       <c r="L23">
-        <v>0.9589651965338354</v>
+        <v>0.9475391330285315</v>
       </c>
       <c r="M23">
-        <v>0.9689726501856033</v>
+        <v>1.024925011447078</v>
       </c>
       <c r="N23">
-        <v>0.9855257827175772</v>
+        <v>1.015437863189458</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9663294398018163</v>
+        <v>0.9975365828791515</v>
       </c>
       <c r="D24">
-        <v>0.9911703195746289</v>
+        <v>1.019546576268838</v>
       </c>
       <c r="E24">
-        <v>0.953340831378477</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>0.966659408810317</v>
+        <v>1.022062789224176</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031725108698599</v>
+        <v>1.043391026089777</v>
       </c>
       <c r="J24">
-        <v>0.9951881846110914</v>
+        <v>1.025129790903506</v>
       </c>
       <c r="K24">
-        <v>1.005354289140951</v>
+        <v>1.033238912334119</v>
       </c>
       <c r="L24">
-        <v>0.9682400673166329</v>
+        <v>0.9533716596442539</v>
       </c>
       <c r="M24">
-        <v>0.9812984625336517</v>
+        <v>1.035713227304692</v>
       </c>
       <c r="N24">
-        <v>0.9966014659829193</v>
+        <v>1.026585592790619</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9819105568956186</v>
+        <v>1.013038744847166</v>
       </c>
       <c r="D25">
-        <v>1.002939853544723</v>
+        <v>1.031745242232184</v>
       </c>
       <c r="E25">
-        <v>0.9651271570870144</v>
+        <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>0.9817035251265767</v>
+        <v>1.035291510007741</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037381806567711</v>
+        <v>1.048672698597249</v>
       </c>
       <c r="J25">
-        <v>1.007062424699472</v>
+        <v>1.037135132215727</v>
       </c>
       <c r="K25">
-        <v>1.015492702856118</v>
+        <v>1.043869960298424</v>
       </c>
       <c r="L25">
-        <v>0.97829207951231</v>
+        <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>0.994592669781084</v>
+        <v>1.047365604126788</v>
       </c>
       <c r="N25">
-        <v>1.00849256885422</v>
+        <v>1.038607983064536</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_31/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.024620473965764</v>
+        <v>0.9929340654558396</v>
       </c>
       <c r="D2">
-        <v>1.040875675392577</v>
+        <v>1.014478139115416</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.045204633632408</v>
+        <v>1.014141975127355</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052575775697339</v>
+        <v>1.04074038143576</v>
       </c>
       <c r="J2">
-        <v>1.046088925972533</v>
+        <v>1.015328191116094</v>
       </c>
       <c r="K2">
-        <v>1.051793470492299</v>
+        <v>1.025739389124947</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.056068169296468</v>
+        <v>1.025407743794172</v>
       </c>
       <c r="N2">
-        <v>1.047574492235491</v>
+        <v>1.009124404890252</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.032637478910631</v>
+        <v>0.9967039168142864</v>
       </c>
       <c r="D3">
-        <v>1.047202617586241</v>
+        <v>1.017195057433115</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.052080825775088</v>
+        <v>1.017573536908785</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055251190014461</v>
+        <v>1.041420537355827</v>
       </c>
       <c r="J3">
-        <v>1.052276297038535</v>
+        <v>1.017284841471936</v>
       </c>
       <c r="K3">
-        <v>1.057265158418895</v>
+        <v>1.027612551924691</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.062088021960862</v>
+        <v>1.027986392386087</v>
       </c>
       <c r="N3">
-        <v>1.053770650078108</v>
+        <v>1.009779341793406</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03766080982185</v>
+        <v>0.999098911440844</v>
       </c>
       <c r="D4">
-        <v>1.051169267472601</v>
+        <v>1.018923321820011</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.056395049880002</v>
+        <v>1.019758616233372</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056914913201042</v>
+        <v>1.041842107554444</v>
       </c>
       <c r="J4">
-        <v>1.056147859308643</v>
+        <v>1.018525695275891</v>
       </c>
       <c r="K4">
-        <v>1.060686989331445</v>
+        <v>1.028798600171908</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.065857341127814</v>
+        <v>1.029624280384359</v>
       </c>
       <c r="N4">
-        <v>1.057647710410714</v>
+        <v>1.010194571818114</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.039735622703574</v>
+        <v>1.000095468207546</v>
       </c>
       <c r="D5">
-        <v>1.052808069074945</v>
+        <v>1.019642932612483</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.058178230339747</v>
+        <v>1.020668990250213</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057598987251442</v>
+        <v>1.042014956186653</v>
       </c>
       <c r="J5">
-        <v>1.057745602564448</v>
+        <v>1.019041457206296</v>
       </c>
       <c r="K5">
-        <v>1.062098648083005</v>
+        <v>1.029291121507327</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.067413476529512</v>
+        <v>1.030305686835616</v>
       </c>
       <c r="N5">
-        <v>1.059247722645206</v>
+        <v>1.010367133722996</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040081886986089</v>
+        <v>1.000262199556361</v>
       </c>
       <c r="D6">
-        <v>1.053081590157285</v>
+        <v>1.019763355714311</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.058475894794907</v>
+        <v>1.020821369891576</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057712967599016</v>
+        <v>1.042043723056785</v>
       </c>
       <c r="J6">
-        <v>1.058012167844379</v>
+        <v>1.019127714495606</v>
       </c>
       <c r="K6">
-        <v>1.062334137920903</v>
+        <v>1.029373464489344</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.067673133643969</v>
+        <v>1.030419683133912</v>
       </c>
       <c r="N6">
-        <v>1.05951466647841</v>
+        <v>1.010395991655778</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.037688676031592</v>
+        <v>0.9991122675358485</v>
       </c>
       <c r="D7">
-        <v>1.051191276161584</v>
+        <v>1.01893296438334</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.056418994441989</v>
+        <v>1.019770812742174</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056924113171299</v>
+        <v>1.041844434299065</v>
       </c>
       <c r="J7">
-        <v>1.056169323557528</v>
+        <v>1.018532609876614</v>
       </c>
       <c r="K7">
-        <v>1.06070595566236</v>
+        <v>1.028805205034254</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.065878244129112</v>
+        <v>1.029633413276169</v>
       </c>
       <c r="N7">
-        <v>1.057669205141295</v>
+        <v>1.010196885398185</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027365321206291</v>
+        <v>0.9942174839186112</v>
       </c>
       <c r="D8">
-        <v>1.043041326303522</v>
+        <v>1.015402604048088</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.047557610358289</v>
+        <v>1.015309155400491</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053494410097762</v>
+        <v>1.040974117223404</v>
       </c>
       <c r="J8">
-        <v>1.048208435290646</v>
+        <v>1.015994764818271</v>
       </c>
       <c r="K8">
-        <v>1.053668207370583</v>
+        <v>1.026377902195209</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.058129729002274</v>
+        <v>1.026285671859351</v>
       </c>
       <c r="N8">
-        <v>1.049697011499947</v>
+        <v>1.009347545421226</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.007800106706577</v>
+        <v>0.9852375503672067</v>
       </c>
       <c r="D9">
-        <v>1.027619824922357</v>
+        <v>1.008945536096045</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923924</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.030815885022134</v>
+        <v>1.007165238252268</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04689449268035</v>
+        <v>1.039295788639806</v>
       </c>
       <c r="J9">
-        <v>1.033080398260037</v>
+        <v>1.011322599485655</v>
       </c>
       <c r="K9">
-        <v>1.040280137898556</v>
+        <v>1.021895126525706</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832517</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.043428026020552</v>
+        <v>1.020143124383482</v>
       </c>
       <c r="N9">
-        <v>1.034547490921544</v>
+        <v>1.007783094061775</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9936467141020902</v>
+        <v>0.9789903369890707</v>
       </c>
       <c r="D10">
-        <v>1.016490308150421</v>
+        <v>1.004470083607343</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547279</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.018750899064603</v>
+        <v>1.001530277790477</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042057192217277</v>
+        <v>1.038075526822689</v>
       </c>
       <c r="J10">
-        <v>1.022114689376853</v>
+        <v>1.0080630542854</v>
       </c>
       <c r="K10">
-        <v>1.03056807412763</v>
+        <v>1.018759095639751</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689356</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.032789656963944</v>
+        <v>1.015871957458675</v>
       </c>
       <c r="N10">
-        <v>1.023566209473962</v>
+        <v>1.006691207321938</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9872050806885606</v>
+        <v>0.9762181428381638</v>
       </c>
       <c r="D11">
-        <v>1.011433687567972</v>
+        <v>1.002488821518911</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016259</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.01327328031244</v>
+        <v>0.9990376631762036</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039841978451006</v>
+        <v>1.03752211783385</v>
       </c>
       <c r="J11">
-        <v>1.017120003562811</v>
+        <v>1.006614869572533</v>
       </c>
       <c r="K11">
-        <v>1.026143155133295</v>
+        <v>1.017363954444536</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.027949149214585</v>
+        <v>1.013977750607584</v>
       </c>
       <c r="N11">
-        <v>1.018564430633165</v>
+        <v>1.006206011351394</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9847603178572066</v>
+        <v>0.9751778648737921</v>
       </c>
       <c r="D12">
-        <v>1.009516132353749</v>
+        <v>1.00174612050049</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.011196672506319</v>
+        <v>0.998103540150172</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038999334712556</v>
+        <v>1.037312707790476</v>
       </c>
       <c r="J12">
-        <v>1.015223951482757</v>
+        <v>1.006071202975027</v>
       </c>
       <c r="K12">
-        <v>1.024463261314247</v>
+        <v>1.016839943882383</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.026112460437542</v>
+        <v>1.013267163752314</v>
       </c>
       <c r="N12">
-        <v>1.016665685941677</v>
+        <v>1.006023852600894</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9852871720199298</v>
+        <v>0.9754014939714515</v>
       </c>
       <c r="D13">
-        <v>1.009929296959077</v>
+        <v>1.001905743131316</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>1.01164408045524</v>
+        <v>0.9983042920401716</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039181011190922</v>
+        <v>1.037357802635418</v>
       </c>
       <c r="J13">
-        <v>1.015632574290747</v>
+        <v>1.006188085020133</v>
       </c>
       <c r="K13">
-        <v>1.024825304396342</v>
+        <v>1.01695261143085</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>1.026508250786819</v>
+        <v>1.013419908026704</v>
       </c>
       <c r="N13">
-        <v>1.017074889040924</v>
+        <v>1.006063015054974</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9870040893655964</v>
+        <v>0.9761323714616015</v>
       </c>
       <c r="D14">
-        <v>1.011276006448767</v>
+        <v>1.002427569307634</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.013102508201483</v>
+        <v>0.9989606187450775</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039772740136696</v>
+        <v>1.037504886993304</v>
       </c>
       <c r="J14">
-        <v>1.016964131513284</v>
+        <v>1.006570048464934</v>
       </c>
       <c r="K14">
-        <v>1.02600505554481</v>
+        <v>1.017320758947571</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>1.027798139982321</v>
+        <v>1.013919157561619</v>
       </c>
       <c r="N14">
-        <v>1.018408337227449</v>
+        <v>1.006190993964886</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9880548785839122</v>
+        <v>0.9765812748777929</v>
       </c>
       <c r="D15">
-        <v>1.012100433371702</v>
+        <v>1.002748178333838</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717474</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.01399540483806</v>
+        <v>0.9993638987403658</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040134643428932</v>
+        <v>1.03759499769363</v>
       </c>
       <c r="J15">
-        <v>1.017779018595247</v>
+        <v>1.006804620497193</v>
       </c>
       <c r="K15">
-        <v>1.026727024501575</v>
+        <v>1.017546812941168</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9494987508782939</v>
       </c>
       <c r="M15">
-        <v>1.028587638981251</v>
+        <v>1.014225826596056</v>
       </c>
       <c r="N15">
-        <v>1.019224381542537</v>
+        <v>1.006269587312752</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9940672159758858</v>
+        <v>0.9791728642016589</v>
       </c>
       <c r="D16">
-        <v>1.016820598669276</v>
+        <v>1.004600638210245</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017256</v>
+        <v>0.9363637346017259</v>
       </c>
       <c r="F16">
-        <v>1.019108771042651</v>
+        <v>1.001694566215127</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042201528234946</v>
+        <v>1.038111719958397</v>
       </c>
       <c r="J16">
-        <v>1.022440667704129</v>
+        <v>1.008158372084638</v>
       </c>
       <c r="K16">
-        <v>1.030856845268927</v>
+        <v>1.018850885482612</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175714</v>
+        <v>0.9519451749175716</v>
       </c>
       <c r="M16">
-        <v>1.033105683523574</v>
+        <v>1.01599670400325</v>
       </c>
       <c r="N16">
-        <v>1.023892650727853</v>
+        <v>1.006723140826</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9977514528731397</v>
+        <v>0.9807802030524547</v>
       </c>
       <c r="D17">
-        <v>1.019715457707913</v>
+        <v>1.005750850826829</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855667</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>1.022245822448639</v>
+        <v>1.003142200549554</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043464614426818</v>
+        <v>1.038429084258968</v>
       </c>
       <c r="J17">
-        <v>1.025296314507458</v>
+        <v>1.008997545859839</v>
       </c>
       <c r="K17">
-        <v>1.033386414047806</v>
+        <v>1.01965879258945</v>
       </c>
       <c r="L17">
         <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>1.035874729403002</v>
+        <v>1.017095359007984</v>
       </c>
       <c r="N17">
-        <v>1.026752352877189</v>
+        <v>1.007004273015031</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9998705692433909</v>
+        <v>0.9817112953276</v>
       </c>
       <c r="D18">
-        <v>1.021381338646056</v>
+        <v>1.006417584734013</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215686</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.024051453709711</v>
+        <v>1.003981526590816</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04418983841726</v>
+        <v>1.038611788987568</v>
       </c>
       <c r="J18">
-        <v>1.0269384672084</v>
+        <v>1.00948348852303</v>
       </c>
       <c r="K18">
-        <v>1.03484093366715</v>
+        <v>1.020126454213</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.037467552245945</v>
+        <v>1.017731885800901</v>
       </c>
       <c r="N18">
-        <v>1.028396837623325</v>
+        <v>1.007167061156715</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.000588212732294</v>
+        <v>0.9820276952704059</v>
       </c>
       <c r="D19">
-        <v>1.021945622365858</v>
+        <v>1.00664422478739</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684963</v>
+        <v>0.9397594814684969</v>
       </c>
       <c r="F19">
-        <v>1.024663139369377</v>
+        <v>1.00426686794801</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044435215762771</v>
+        <v>1.03867368067767</v>
       </c>
       <c r="J19">
-        <v>1.027494519106019</v>
+        <v>1.009648589610476</v>
       </c>
       <c r="K19">
-        <v>1.035333428914814</v>
+        <v>1.020285313957522</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816589</v>
+        <v>0.9546352493816594</v>
       </c>
       <c r="M19">
-        <v>1.038006978309026</v>
+        <v>1.017948203539759</v>
       </c>
       <c r="N19">
-        <v>1.028953679178419</v>
+        <v>1.007222367728295</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9973592891302273</v>
+        <v>0.9806084204312546</v>
       </c>
       <c r="D20">
-        <v>1.019407233164107</v>
+        <v>1.005627876587862</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660144</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.021911771706975</v>
+        <v>1.002987408348038</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043330299505391</v>
+        <v>1.038395283823507</v>
       </c>
       <c r="J20">
-        <v>1.02499238665198</v>
+        <v>1.008907877465014</v>
       </c>
       <c r="K20">
-        <v>1.03311720299642</v>
+        <v>1.019572483199281</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057445</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.035579969126623</v>
+        <v>1.016977930397444</v>
       </c>
       <c r="N20">
-        <v>1.026447993409296</v>
+        <v>1.006974233943185</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9864999809499421</v>
+        <v>0.9759174418009683</v>
       </c>
       <c r="D21">
-        <v>1.010880550759406</v>
+        <v>1.00227409358616</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.012674230582209</v>
+        <v>0.9987675776456264</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03959905252297</v>
+        <v>1.037461681318486</v>
       </c>
       <c r="J21">
-        <v>1.016573180604942</v>
+        <v>1.006457730212152</v>
       </c>
       <c r="K21">
-        <v>1.025658678739712</v>
+        <v>1.017212510269089</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>1.027419399442419</v>
+        <v>1.013772336323679</v>
       </c>
       <c r="N21">
-        <v>1.018016831123975</v>
+        <v>1.006153361391584</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.979368073550741</v>
+        <v>0.9729066727642069</v>
       </c>
       <c r="D22">
-        <v>1.005289895443764</v>
+        <v>1.000126118064205</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651159</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>1.006620981575447</v>
+        <v>0.9960664561553481</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037137398105221</v>
+        <v>1.036852369412506</v>
       </c>
       <c r="J22">
-        <v>1.011041312739448</v>
+        <v>1.004883860367886</v>
       </c>
       <c r="K22">
-        <v>1.020757281845274</v>
+        <v>1.015695076945085</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572513</v>
+        <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>1.022062406785542</v>
+        <v>1.01171624214956</v>
       </c>
       <c r="N22">
-        <v>1.012477107371598</v>
+        <v>1.00562601000825</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9831795491501284</v>
+        <v>0.9745087225616551</v>
       </c>
       <c r="D23">
-        <v>1.008276726172772</v>
+        <v>1.001268617238412</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963312</v>
+        <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>1.009854630450179</v>
+        <v>0.9975030372816861</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038453964578115</v>
+        <v>1.037177523940565</v>
       </c>
       <c r="J23">
-        <v>1.013997869907008</v>
+        <v>1.005721438170841</v>
       </c>
       <c r="K23">
-        <v>1.023376928238725</v>
+        <v>1.016502754527412</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285315</v>
+        <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>1.024925011447078</v>
+        <v>1.012810159701143</v>
       </c>
       <c r="N23">
-        <v>1.015437863189458</v>
+        <v>1.00590665921136</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9975365828791515</v>
+        <v>0.9806860614745067</v>
       </c>
       <c r="D24">
-        <v>1.019546576268838</v>
+        <v>1.00568345620807</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>1.022062789224176</v>
+        <v>1.003057367876567</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043391026089777</v>
+        <v>1.038410564221936</v>
       </c>
       <c r="J24">
-        <v>1.025129790903506</v>
+        <v>1.008948405655826</v>
       </c>
       <c r="K24">
-        <v>1.033238912334119</v>
+        <v>1.019611493737012</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442539</v>
+        <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>1.035713227304692</v>
+        <v>1.017031004601358</v>
       </c>
       <c r="N24">
-        <v>1.026585592790619</v>
+        <v>1.006987810983715</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.013038744847166</v>
+        <v>0.9876033137401669</v>
       </c>
       <c r="D25">
-        <v>1.031745242232184</v>
+        <v>1.01064402036774</v>
       </c>
       <c r="E25">
         <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>1.035291510007741</v>
+        <v>1.009305654360291</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048672698597249</v>
+        <v>1.039747231747644</v>
       </c>
       <c r="J25">
-        <v>1.037135132215727</v>
+        <v>1.012555201358353</v>
       </c>
       <c r="K25">
-        <v>1.043869960298424</v>
+        <v>1.02307931853562</v>
       </c>
       <c r="L25">
         <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>1.047365604126788</v>
+        <v>1.021761209360527</v>
       </c>
       <c r="N25">
-        <v>1.038607983064536</v>
+        <v>1.008195909237475</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_31/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9929340654558396</v>
+        <v>1.020715172285117</v>
       </c>
       <c r="D2">
-        <v>1.014478139115416</v>
+        <v>1.029780228227659</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>1.014141975127355</v>
+        <v>1.036481785142401</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04074038143576</v>
+        <v>1.029393502144703</v>
       </c>
       <c r="J2">
-        <v>1.015328191116094</v>
+        <v>1.025910718035589</v>
       </c>
       <c r="K2">
-        <v>1.025739389124947</v>
+        <v>1.032593146699511</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>1.025407743794172</v>
+        <v>1.039275401874681</v>
       </c>
       <c r="N2">
-        <v>1.009124404890252</v>
+        <v>1.012715097980796</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9967039168142864</v>
+        <v>1.021518409425796</v>
       </c>
       <c r="D3">
-        <v>1.017195057433115</v>
+        <v>1.030380914748545</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>1.017573536908785</v>
+        <v>1.037269254840939</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041420537355827</v>
+        <v>1.029479104628175</v>
       </c>
       <c r="J3">
-        <v>1.017284841471936</v>
+        <v>1.026352024954584</v>
       </c>
       <c r="K3">
-        <v>1.027612551924691</v>
+        <v>1.033002608787188</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>1.027986392386087</v>
+        <v>1.039872540812007</v>
       </c>
       <c r="N3">
-        <v>1.009779341793406</v>
+        <v>1.012861942845745</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.999098911440844</v>
+        <v>1.02203877066807</v>
       </c>
       <c r="D4">
-        <v>1.018923321820011</v>
+        <v>1.030769959850846</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>1.019758616233372</v>
+        <v>1.03777967932735</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041842107554444</v>
+        <v>1.0295332420575</v>
       </c>
       <c r="J4">
-        <v>1.018525695275891</v>
+        <v>1.026637540964479</v>
       </c>
       <c r="K4">
-        <v>1.028798600171908</v>
+        <v>1.033267223135638</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>1.029624280384359</v>
+        <v>1.040259151714285</v>
       </c>
       <c r="N4">
-        <v>1.010194571818114</v>
+        <v>1.012956918131548</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.000095468207546</v>
+        <v>1.022257675571742</v>
       </c>
       <c r="D5">
-        <v>1.019642932612483</v>
+        <v>1.030933598857961</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>1.020668990250213</v>
+        <v>1.037994470096103</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042014956186653</v>
+        <v>1.029555700747461</v>
       </c>
       <c r="J5">
-        <v>1.019041457206296</v>
+        <v>1.026757561239892</v>
       </c>
       <c r="K5">
-        <v>1.029291121507327</v>
+        <v>1.033378385397541</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>1.030305686835616</v>
+        <v>1.040421734348042</v>
       </c>
       <c r="N5">
-        <v>1.010367133722996</v>
+        <v>1.012996834944017</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.000262199556361</v>
+        <v>1.022294439122798</v>
       </c>
       <c r="D6">
-        <v>1.019763355714311</v>
+        <v>1.030961079463365</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>1.020821369891576</v>
+        <v>1.038030546565751</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042043723056785</v>
+        <v>1.02955945400793</v>
       </c>
       <c r="J6">
-        <v>1.019127714495606</v>
+        <v>1.026777712509597</v>
       </c>
       <c r="K6">
-        <v>1.029373464489344</v>
+        <v>1.033397045203757</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>1.030419683133912</v>
+        <v>1.040449035651285</v>
       </c>
       <c r="N6">
-        <v>1.010395991655778</v>
+        <v>1.013003536505763</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9991122675358485</v>
+        <v>1.022041695118387</v>
       </c>
       <c r="D7">
-        <v>1.01893296438334</v>
+        <v>1.030772146073874</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>1.019770812742174</v>
+        <v>1.037782548556229</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041844434299065</v>
+        <v>1.029533543333965</v>
       </c>
       <c r="J7">
-        <v>1.018532609876614</v>
+        <v>1.026639144724775</v>
       </c>
       <c r="K7">
-        <v>1.028805205034254</v>
+        <v>1.033268708813669</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>1.029633413276169</v>
+        <v>1.040261323951596</v>
       </c>
       <c r="N7">
-        <v>1.010196885398185</v>
+        <v>1.012957451544962</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9942174839186112</v>
+        <v>1.020986502044061</v>
       </c>
       <c r="D8">
-        <v>1.015402604048088</v>
+        <v>1.029983157199668</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>1.015309155400491</v>
+        <v>1.036747730960146</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040974117223404</v>
+        <v>1.029422690952672</v>
       </c>
       <c r="J8">
-        <v>1.015994764818271</v>
+        <v>1.026059867084568</v>
       </c>
       <c r="K8">
-        <v>1.026377902195209</v>
+        <v>1.032731594846348</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>1.026285671859351</v>
+        <v>1.039477160735849</v>
       </c>
       <c r="N8">
-        <v>1.009347545421226</v>
+        <v>1.012764733547933</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9852375503672067</v>
+        <v>1.019131889654449</v>
       </c>
       <c r="D9">
-        <v>1.008945536096045</v>
+        <v>1.028595705735653</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.007165238252268</v>
+        <v>1.034931074728898</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039295788639806</v>
+        <v>1.029217788154204</v>
       </c>
       <c r="J9">
-        <v>1.011322599485655</v>
+        <v>1.025038864048028</v>
       </c>
       <c r="K9">
-        <v>1.021895126525706</v>
+        <v>1.03178262797819</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.020143124383482</v>
+        <v>1.038097143425646</v>
       </c>
       <c r="N9">
-        <v>1.007783094061775</v>
+        <v>1.012424829780809</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9789903369890707</v>
+        <v>1.017898793968161</v>
       </c>
       <c r="D10">
-        <v>1.004470083607343</v>
+        <v>1.027672767264229</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.001530277790477</v>
+        <v>1.033724684625465</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038075526822689</v>
+        <v>1.029074795343038</v>
       </c>
       <c r="J10">
-        <v>1.0080630542854</v>
+        <v>1.024358110269604</v>
       </c>
       <c r="K10">
-        <v>1.018759095639751</v>
+        <v>1.031148384298291</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.015871957458675</v>
+        <v>1.037178432379706</v>
       </c>
       <c r="N10">
-        <v>1.006691207321938</v>
+        <v>1.012198046512325</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9762181428381638</v>
+        <v>1.017365657470499</v>
       </c>
       <c r="D11">
-        <v>1.002488821518911</v>
+        <v>1.027273630241966</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9990376631762036</v>
+        <v>1.033203449065946</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03752211783385</v>
+        <v>1.029011370713859</v>
       </c>
       <c r="J11">
-        <v>1.006614869572533</v>
+        <v>1.024063332545104</v>
       </c>
       <c r="K11">
-        <v>1.017363954444536</v>
+        <v>1.030873388255704</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.013977750607584</v>
+        <v>1.036780950956363</v>
       </c>
       <c r="N11">
-        <v>1.006206011351394</v>
+        <v>1.012099809825894</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9751778648737921</v>
+        <v>1.017167749097803</v>
       </c>
       <c r="D12">
-        <v>1.00174612050049</v>
+        <v>1.027125450280844</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.998103540150172</v>
+        <v>1.033010012297803</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037312707790476</v>
+        <v>1.028987586137449</v>
       </c>
       <c r="J12">
-        <v>1.006071202975027</v>
+        <v>1.023953839262737</v>
       </c>
       <c r="K12">
-        <v>1.016839943882383</v>
+        <v>1.030771189172851</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.013267163752314</v>
+        <v>1.036633359505186</v>
       </c>
       <c r="N12">
-        <v>1.006023852600894</v>
+        <v>1.01206331510336</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9754014939714515</v>
+        <v>1.017210195554773</v>
       </c>
       <c r="D13">
-        <v>1.001905743131316</v>
+        <v>1.02715723185597</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9983042920401716</v>
+        <v>1.033051497263201</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037357802635418</v>
+        <v>1.028992698218805</v>
       </c>
       <c r="J13">
-        <v>1.006188085020133</v>
+        <v>1.023977325909241</v>
       </c>
       <c r="K13">
-        <v>1.01695261143085</v>
+        <v>1.030793113612426</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.013419908026704</v>
+        <v>1.036665016042794</v>
       </c>
       <c r="N13">
-        <v>1.006063015054974</v>
+        <v>1.012071143574939</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9761323714616015</v>
+        <v>1.017349295798423</v>
       </c>
       <c r="D14">
-        <v>1.002427569307634</v>
+        <v>1.02726138005189</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9989606187450775</v>
+        <v>1.033187455974071</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037504886993304</v>
+        <v>1.029009409276566</v>
       </c>
       <c r="J14">
-        <v>1.006570048464934</v>
+        <v>1.024054281782704</v>
       </c>
       <c r="K14">
-        <v>1.017320758947571</v>
+        <v>1.030864941526848</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.013919157561619</v>
+        <v>1.036768749953348</v>
       </c>
       <c r="N14">
-        <v>1.006190993964886</v>
+        <v>1.012096793264983</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9765812748777929</v>
+        <v>1.017435016302741</v>
       </c>
       <c r="D15">
-        <v>1.002748178333838</v>
+        <v>1.027325559494541</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9993638987403658</v>
+        <v>1.033271247654989</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03759499769363</v>
+        <v>1.029019675604592</v>
       </c>
       <c r="J15">
-        <v>1.006804620497193</v>
+        <v>1.024101696913971</v>
       </c>
       <c r="K15">
-        <v>1.017546812941168</v>
+        <v>1.030909190054397</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.014225826596056</v>
+        <v>1.036832670630587</v>
       </c>
       <c r="N15">
-        <v>1.006269587312752</v>
+        <v>1.012112596204868</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9791728642016589</v>
+        <v>1.017934193530438</v>
       </c>
       <c r="D16">
-        <v>1.004600638210245</v>
+        <v>1.027699267406345</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.001694566215127</v>
+        <v>1.033759301501193</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038111719958397</v>
+        <v>1.029078972917638</v>
       </c>
       <c r="J16">
-        <v>1.008158372084638</v>
+        <v>1.024377673664651</v>
       </c>
       <c r="K16">
-        <v>1.018850885482612</v>
+        <v>1.031166627325776</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.01599670400325</v>
+        <v>1.037204818945082</v>
       </c>
       <c r="N16">
-        <v>1.006723140826</v>
+        <v>1.012204565396551</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9807802030524547</v>
+        <v>1.018247530195301</v>
       </c>
       <c r="D17">
-        <v>1.005750850826829</v>
+        <v>1.02793382014218</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.003142200549554</v>
+        <v>1.034065751335753</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038429084258968</v>
+        <v>1.029115765358222</v>
       </c>
       <c r="J17">
-        <v>1.008997545859839</v>
+        <v>1.024550785687111</v>
       </c>
       <c r="K17">
-        <v>1.01965879258945</v>
+        <v>1.031328014389753</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.017095359007984</v>
+        <v>1.037438346435063</v>
       </c>
       <c r="N17">
-        <v>1.007004273015031</v>
+        <v>1.012262245390538</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9817112953276</v>
+        <v>1.018430371440963</v>
       </c>
       <c r="D18">
-        <v>1.006417584734013</v>
+        <v>1.028070679033384</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.003981526590816</v>
+        <v>1.034244608122493</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038611788987568</v>
+        <v>1.029137080239745</v>
       </c>
       <c r="J18">
-        <v>1.00948348852303</v>
+        <v>1.024651758252116</v>
       </c>
       <c r="K18">
-        <v>1.020126454213</v>
+        <v>1.031422113484027</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.017731885800901</v>
+        <v>1.037574590453652</v>
       </c>
       <c r="N18">
-        <v>1.007167061156715</v>
+        <v>1.012295885453824</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9820276952704059</v>
+        <v>1.018492728633608</v>
       </c>
       <c r="D19">
-        <v>1.00664422478739</v>
+        <v>1.028117352502447</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.00426686794801</v>
+        <v>1.034305612220124</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03867368067767</v>
+        <v>1.029144323358863</v>
       </c>
       <c r="J19">
-        <v>1.009648589610476</v>
+        <v>1.024686187120277</v>
       </c>
       <c r="K19">
-        <v>1.020285313957522</v>
+        <v>1.031454192820939</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.017948203539759</v>
+        <v>1.037621051411991</v>
       </c>
       <c r="N19">
-        <v>1.007222367728295</v>
+        <v>1.012307355203913</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9806084204312546</v>
+        <v>1.018213904131434</v>
       </c>
       <c r="D20">
-        <v>1.005627876587862</v>
+        <v>1.027908649848626</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.002987408348038</v>
+        <v>1.034032860797785</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038395283823507</v>
+        <v>1.029111832925108</v>
       </c>
       <c r="J20">
-        <v>1.008907877465014</v>
+        <v>1.024532212473364</v>
       </c>
       <c r="K20">
-        <v>1.019572483199281</v>
+        <v>1.031310702720859</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.016977930397444</v>
+        <v>1.037413287886283</v>
       </c>
       <c r="N20">
-        <v>1.006974233943185</v>
+        <v>1.012256057252508</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9759174418009683</v>
+        <v>1.017308330854536</v>
       </c>
       <c r="D21">
-        <v>1.00227409358616</v>
+        <v>1.027230708854371</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9987675776456264</v>
+        <v>1.033147414720426</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037461681318486</v>
+        <v>1.029004494515502</v>
       </c>
       <c r="J21">
-        <v>1.006457730212152</v>
+        <v>1.024031620177475</v>
       </c>
       <c r="K21">
-        <v>1.017212510269089</v>
+        <v>1.030843791456414</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.013772336323679</v>
+        <v>1.036738201484183</v>
       </c>
       <c r="N21">
-        <v>1.006153361391584</v>
+        <v>1.012089240211526</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9729066727642069</v>
+        <v>1.016739669226092</v>
       </c>
       <c r="D22">
-        <v>1.000126118064205</v>
+        <v>1.026804908651131</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9960664561553481</v>
+        <v>1.032591703508934</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036852369412506</v>
+        <v>1.028935700265695</v>
       </c>
       <c r="J22">
-        <v>1.004883860367886</v>
+        <v>1.023716880258963</v>
       </c>
       <c r="K22">
-        <v>1.015695076945085</v>
+        <v>1.030549918092966</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.01171624214956</v>
+        <v>1.036314042940867</v>
       </c>
       <c r="N22">
-        <v>1.00562601000825</v>
+        <v>1.011984325613953</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9745087225616551</v>
+        <v>1.017041059794902</v>
       </c>
       <c r="D23">
-        <v>1.001268617238412</v>
+        <v>1.027030590254847</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.9975030372816861</v>
+        <v>1.032886200660626</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037177523940565</v>
+        <v>1.028972292995662</v>
       </c>
       <c r="J23">
-        <v>1.005721438170841</v>
+        <v>1.023883729184569</v>
       </c>
       <c r="K23">
-        <v>1.016502754527412</v>
+        <v>1.030705734614518</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.012810159701143</v>
+        <v>1.036538868843172</v>
       </c>
       <c r="N23">
-        <v>1.00590665921136</v>
+        <v>1.012039945523499</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9806860614745067</v>
+        <v>1.018229098063743</v>
       </c>
       <c r="D24">
-        <v>1.00568345620807</v>
+        <v>1.027920023072016</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.003057367876567</v>
+        <v>1.034047722277204</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038410564221936</v>
+        <v>1.0291136102721</v>
       </c>
       <c r="J24">
-        <v>1.008948405655826</v>
+        <v>1.024540604911662</v>
       </c>
       <c r="K24">
-        <v>1.019611493737012</v>
+        <v>1.031318525227956</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.017031004601358</v>
+        <v>1.037424610669099</v>
       </c>
       <c r="N24">
-        <v>1.006987810983715</v>
+        <v>1.012258853417215</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9876033137401669</v>
+        <v>1.019610775149119</v>
       </c>
       <c r="D25">
-        <v>1.01064402036774</v>
+        <v>1.028954045909203</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.009305654360291</v>
+        <v>1.035399902211755</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039747231747644</v>
+        <v>1.029271889903556</v>
       </c>
       <c r="J25">
-        <v>1.012555201358353</v>
+        <v>1.025302838473076</v>
       </c>
       <c r="K25">
-        <v>1.02307931853562</v>
+        <v>1.032028246660292</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.021761209360527</v>
+        <v>1.038453689420085</v>
       </c>
       <c r="N25">
-        <v>1.008195909237475</v>
+        <v>1.012512736936458</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_31/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.020715172285117</v>
+        <v>0.9929340654558387</v>
       </c>
       <c r="D2">
-        <v>1.029780228227659</v>
+        <v>1.014478139115415</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.036481785142401</v>
+        <v>1.014141975127355</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029393502144703</v>
+        <v>1.04074038143576</v>
       </c>
       <c r="J2">
-        <v>1.025910718035589</v>
+        <v>1.015328191116093</v>
       </c>
       <c r="K2">
-        <v>1.032593146699511</v>
+        <v>1.025739389124946</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.039275401874681</v>
+        <v>1.025407743794171</v>
       </c>
       <c r="N2">
-        <v>1.012715097980796</v>
+        <v>1.009124404890251</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021518409425796</v>
+        <v>0.9967039168142868</v>
       </c>
       <c r="D3">
-        <v>1.030380914748545</v>
+        <v>1.017195057433115</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.037269254840939</v>
+        <v>1.017573536908786</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029479104628175</v>
+        <v>1.041420537355827</v>
       </c>
       <c r="J3">
-        <v>1.026352024954584</v>
+        <v>1.017284841471936</v>
       </c>
       <c r="K3">
-        <v>1.033002608787188</v>
+        <v>1.027612551924692</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.039872540812007</v>
+        <v>1.027986392386088</v>
       </c>
       <c r="N3">
-        <v>1.012861942845745</v>
+        <v>1.009779341793406</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02203877066807</v>
+        <v>0.9990989114408437</v>
       </c>
       <c r="D4">
-        <v>1.030769959850846</v>
+        <v>1.01892332182001</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.03777967932735</v>
+        <v>1.019758616233372</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.0295332420575</v>
+        <v>1.041842107554444</v>
       </c>
       <c r="J4">
-        <v>1.026637540964479</v>
+        <v>1.01852569527589</v>
       </c>
       <c r="K4">
-        <v>1.033267223135638</v>
+        <v>1.028798600171907</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.040259151714285</v>
+        <v>1.029624280384359</v>
       </c>
       <c r="N4">
-        <v>1.012956918131548</v>
+        <v>1.010194571818114</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022257675571742</v>
+        <v>1.000095468207546</v>
       </c>
       <c r="D5">
-        <v>1.030933598857961</v>
+        <v>1.019642932612483</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.037994470096103</v>
+        <v>1.020668990250214</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029555700747461</v>
+        <v>1.042014956186653</v>
       </c>
       <c r="J5">
-        <v>1.026757561239892</v>
+        <v>1.019041457206296</v>
       </c>
       <c r="K5">
-        <v>1.033378385397541</v>
+        <v>1.029291121507328</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.040421734348042</v>
+        <v>1.030305686835617</v>
       </c>
       <c r="N5">
-        <v>1.012996834944017</v>
+        <v>1.010367133722997</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022294439122798</v>
+        <v>1.000262199556361</v>
       </c>
       <c r="D6">
-        <v>1.030961079463365</v>
+        <v>1.019763355714311</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.038030546565751</v>
+        <v>1.020821369891577</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.02955945400793</v>
+        <v>1.042043723056785</v>
       </c>
       <c r="J6">
-        <v>1.026777712509597</v>
+        <v>1.019127714495607</v>
       </c>
       <c r="K6">
-        <v>1.033397045203757</v>
+        <v>1.029373464489344</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.040449035651285</v>
+        <v>1.030419683133913</v>
       </c>
       <c r="N6">
-        <v>1.013003536505763</v>
+        <v>1.010395991655778</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022041695118387</v>
+        <v>0.9991122675358497</v>
       </c>
       <c r="D7">
-        <v>1.030772146073874</v>
+        <v>1.018932964383342</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.037782548556229</v>
+        <v>1.019770812742175</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029533543333965</v>
+        <v>1.041844434299065</v>
       </c>
       <c r="J7">
-        <v>1.026639144724775</v>
+        <v>1.018532609876615</v>
       </c>
       <c r="K7">
-        <v>1.033268708813669</v>
+        <v>1.028805205034255</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.040261323951596</v>
+        <v>1.02963341327617</v>
       </c>
       <c r="N7">
-        <v>1.012957451544962</v>
+        <v>1.010196885398185</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020986502044061</v>
+        <v>0.9942174839186114</v>
       </c>
       <c r="D8">
-        <v>1.029983157199668</v>
+        <v>1.015402604048088</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.036747730960146</v>
+        <v>1.015309155400491</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029422690952672</v>
+        <v>1.040974117223404</v>
       </c>
       <c r="J8">
-        <v>1.026059867084568</v>
+        <v>1.015994764818272</v>
       </c>
       <c r="K8">
-        <v>1.032731594846348</v>
+        <v>1.026377902195209</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.039477160735849</v>
+        <v>1.026285671859351</v>
       </c>
       <c r="N8">
-        <v>1.012764733547933</v>
+        <v>1.009347545421226</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.019131889654449</v>
+        <v>0.9852375503672066</v>
       </c>
       <c r="D9">
-        <v>1.028595705735653</v>
+        <v>1.008945536096045</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.034931074728898</v>
+        <v>1.007165238252268</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029217788154204</v>
+        <v>1.039295788639806</v>
       </c>
       <c r="J9">
-        <v>1.025038864048028</v>
+        <v>1.011322599485655</v>
       </c>
       <c r="K9">
-        <v>1.03178262797819</v>
+        <v>1.021895126525705</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.038097143425646</v>
+        <v>1.020143124383482</v>
       </c>
       <c r="N9">
-        <v>1.012424829780809</v>
+        <v>1.007783094061775</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.017898793968161</v>
+        <v>0.9789903369890709</v>
       </c>
       <c r="D10">
-        <v>1.027672767264229</v>
+        <v>1.004470083607343</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.033724684625465</v>
+        <v>1.001530277790478</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029074795343038</v>
+        <v>1.038075526822688</v>
       </c>
       <c r="J10">
-        <v>1.024358110269604</v>
+        <v>1.0080630542854</v>
       </c>
       <c r="K10">
-        <v>1.031148384298291</v>
+        <v>1.018759095639751</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.037178432379706</v>
+        <v>1.015871957458675</v>
       </c>
       <c r="N10">
-        <v>1.012198046512325</v>
+        <v>1.006691207321938</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.017365657470499</v>
+        <v>0.9762181428381633</v>
       </c>
       <c r="D11">
-        <v>1.027273630241966</v>
+        <v>1.002488821518911</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.033203449065946</v>
+        <v>0.9990376631762031</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029011370713859</v>
+        <v>1.03752211783385</v>
       </c>
       <c r="J11">
-        <v>1.024063332545104</v>
+        <v>1.006614869572532</v>
       </c>
       <c r="K11">
-        <v>1.030873388255704</v>
+        <v>1.017363954444536</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.036780950956363</v>
+        <v>1.013977750607584</v>
       </c>
       <c r="N11">
-        <v>1.012099809825894</v>
+        <v>1.006206011351394</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.017167749097803</v>
+        <v>0.9751778648737922</v>
       </c>
       <c r="D12">
-        <v>1.027125450280844</v>
+        <v>1.001746120500489</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.033010012297803</v>
+        <v>0.9981035401501719</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028987586137449</v>
+        <v>1.037312707790475</v>
       </c>
       <c r="J12">
-        <v>1.023953839262737</v>
+        <v>1.006071202975027</v>
       </c>
       <c r="K12">
-        <v>1.030771189172851</v>
+        <v>1.016839943882383</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.036633359505186</v>
+        <v>1.013267163752313</v>
       </c>
       <c r="N12">
-        <v>1.01206331510336</v>
+        <v>1.006023852600894</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.017210195554773</v>
+        <v>0.9754014939714507</v>
       </c>
       <c r="D13">
-        <v>1.02715723185597</v>
+        <v>1.001905743131315</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.033051497263201</v>
+        <v>0.9983042920401706</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028992698218805</v>
+        <v>1.037357802635417</v>
       </c>
       <c r="J13">
-        <v>1.023977325909241</v>
+        <v>1.006188085020132</v>
       </c>
       <c r="K13">
-        <v>1.030793113612426</v>
+        <v>1.016952611430849</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.036665016042794</v>
+        <v>1.013419908026703</v>
       </c>
       <c r="N13">
-        <v>1.012071143574939</v>
+        <v>1.006063015054974</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.017349295798423</v>
+        <v>0.9761323714616015</v>
       </c>
       <c r="D14">
-        <v>1.02726138005189</v>
+        <v>1.002427569307634</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.033187455974071</v>
+        <v>0.9989606187450772</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029009409276566</v>
+        <v>1.037504886993304</v>
       </c>
       <c r="J14">
-        <v>1.024054281782704</v>
+        <v>1.006570048464934</v>
       </c>
       <c r="K14">
-        <v>1.030864941526848</v>
+        <v>1.017320758947571</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.036768749953348</v>
+        <v>1.013919157561619</v>
       </c>
       <c r="N14">
-        <v>1.012096793264983</v>
+        <v>1.006190993964886</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.017435016302741</v>
+        <v>0.9765812748777927</v>
       </c>
       <c r="D15">
-        <v>1.027325559494541</v>
+        <v>1.002748178333837</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.033271247654989</v>
+        <v>0.9993638987403652</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029019675604592</v>
+        <v>1.037594997693629</v>
       </c>
       <c r="J15">
-        <v>1.024101696913971</v>
+        <v>1.006804620497192</v>
       </c>
       <c r="K15">
-        <v>1.030909190054397</v>
+        <v>1.017546812941167</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.036832670630587</v>
+        <v>1.014225826596056</v>
       </c>
       <c r="N15">
-        <v>1.012112596204868</v>
+        <v>1.006269587312752</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.017934193530438</v>
+        <v>0.9791728642016592</v>
       </c>
       <c r="D16">
-        <v>1.027699267406345</v>
+        <v>1.004600638210244</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.033759301501193</v>
+        <v>1.001694566215127</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029078972917638</v>
+        <v>1.038111719958396</v>
       </c>
       <c r="J16">
-        <v>1.024377673664651</v>
+        <v>1.008158372084638</v>
       </c>
       <c r="K16">
-        <v>1.031166627325776</v>
+        <v>1.018850885482612</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.037204818945082</v>
+        <v>1.01599670400325</v>
       </c>
       <c r="N16">
-        <v>1.012204565396551</v>
+        <v>1.006723140826</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.018247530195301</v>
+        <v>0.9807802030524546</v>
       </c>
       <c r="D17">
-        <v>1.02793382014218</v>
+        <v>1.005750850826829</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.034065751335753</v>
+        <v>1.003142200549554</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029115765358222</v>
+        <v>1.038429084258968</v>
       </c>
       <c r="J17">
-        <v>1.024550785687111</v>
+        <v>1.008997545859839</v>
       </c>
       <c r="K17">
-        <v>1.031328014389753</v>
+        <v>1.01965879258945</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.037438346435063</v>
+        <v>1.017095359007984</v>
       </c>
       <c r="N17">
-        <v>1.012262245390538</v>
+        <v>1.007004273015031</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.018430371440963</v>
+        <v>0.9817112953276004</v>
       </c>
       <c r="D18">
-        <v>1.028070679033384</v>
+        <v>1.006417584734014</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.034244608122493</v>
+        <v>1.003981526590816</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029137080239745</v>
+        <v>1.038611788987568</v>
       </c>
       <c r="J18">
-        <v>1.024651758252116</v>
+        <v>1.00948348852303</v>
       </c>
       <c r="K18">
-        <v>1.031422113484027</v>
+        <v>1.020126454213</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.037574590453652</v>
+        <v>1.017731885800901</v>
       </c>
       <c r="N18">
-        <v>1.012295885453824</v>
+        <v>1.007167061156715</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.018492728633608</v>
+        <v>0.9820276952704052</v>
       </c>
       <c r="D19">
-        <v>1.028117352502447</v>
+        <v>1.006644224787389</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.034305612220124</v>
+        <v>1.004266867948009</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029144323358863</v>
+        <v>1.038673680677669</v>
       </c>
       <c r="J19">
-        <v>1.024686187120277</v>
+        <v>1.009648589610475</v>
       </c>
       <c r="K19">
-        <v>1.031454192820939</v>
+        <v>1.020285313957521</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.037621051411991</v>
+        <v>1.017948203539758</v>
       </c>
       <c r="N19">
-        <v>1.012307355203913</v>
+        <v>1.007222367728295</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.018213904131434</v>
+        <v>0.9806084204312551</v>
       </c>
       <c r="D20">
-        <v>1.027908649848626</v>
+        <v>1.005627876587863</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.034032860797785</v>
+        <v>1.002987408348038</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029111832925108</v>
+        <v>1.038395283823507</v>
       </c>
       <c r="J20">
-        <v>1.024532212473364</v>
+        <v>1.008907877465014</v>
       </c>
       <c r="K20">
-        <v>1.031310702720859</v>
+        <v>1.019572483199281</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.037413287886283</v>
+        <v>1.016977930397444</v>
       </c>
       <c r="N20">
-        <v>1.012256057252508</v>
+        <v>1.006974233943186</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.017308330854536</v>
+        <v>0.9759174418009684</v>
       </c>
       <c r="D21">
-        <v>1.027230708854371</v>
+        <v>1.00227409358616</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.033147414720426</v>
+        <v>0.9987675776456262</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029004494515502</v>
+        <v>1.037461681318486</v>
       </c>
       <c r="J21">
-        <v>1.024031620177475</v>
+        <v>1.006457730212152</v>
       </c>
       <c r="K21">
-        <v>1.030843791456414</v>
+        <v>1.017212510269089</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.036738201484183</v>
+        <v>1.013772336323679</v>
       </c>
       <c r="N21">
-        <v>1.012089240211526</v>
+        <v>1.006153361391584</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.016739669226092</v>
+        <v>0.9729066727642072</v>
       </c>
       <c r="D22">
-        <v>1.026804908651131</v>
+        <v>1.000126118064205</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.032591703508934</v>
+        <v>0.9960664561553478</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028935700265695</v>
+        <v>1.036852369412506</v>
       </c>
       <c r="J22">
-        <v>1.023716880258963</v>
+        <v>1.004883860367886</v>
       </c>
       <c r="K22">
-        <v>1.030549918092966</v>
+        <v>1.015695076945085</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.036314042940867</v>
+        <v>1.01171624214956</v>
       </c>
       <c r="N22">
-        <v>1.011984325613953</v>
+        <v>1.00562601000825</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.017041059794902</v>
+        <v>0.9745087225616557</v>
       </c>
       <c r="D23">
-        <v>1.027030590254847</v>
+        <v>1.001268617238412</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.032886200660626</v>
+        <v>0.9975030372816868</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028972292995662</v>
+        <v>1.037177523940565</v>
       </c>
       <c r="J23">
-        <v>1.023883729184569</v>
+        <v>1.005721438170841</v>
       </c>
       <c r="K23">
-        <v>1.030705734614518</v>
+        <v>1.016502754527413</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.036538868843172</v>
+        <v>1.012810159701143</v>
       </c>
       <c r="N23">
-        <v>1.012039945523499</v>
+        <v>1.00590665921136</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.018229098063743</v>
+        <v>0.980686061474506</v>
       </c>
       <c r="D24">
-        <v>1.027920023072016</v>
+        <v>1.005683456208069</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.034047722277204</v>
+        <v>1.003057367876566</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.0291136102721</v>
+        <v>1.038410564221935</v>
       </c>
       <c r="J24">
-        <v>1.024540604911662</v>
+        <v>1.008948405655825</v>
       </c>
       <c r="K24">
-        <v>1.031318525227956</v>
+        <v>1.019611493737012</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.037424610669099</v>
+        <v>1.017031004601357</v>
       </c>
       <c r="N24">
-        <v>1.012258853417215</v>
+        <v>1.006987810983715</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.019610775149119</v>
+        <v>0.9876033137401672</v>
       </c>
       <c r="D25">
-        <v>1.028954045909203</v>
+        <v>1.010644020367741</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.035399902211755</v>
+        <v>1.009305654360292</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029271889903556</v>
+        <v>1.039747231747645</v>
       </c>
       <c r="J25">
-        <v>1.025302838473076</v>
+        <v>1.012555201358354</v>
       </c>
       <c r="K25">
-        <v>1.032028246660292</v>
+        <v>1.023079318535621</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.038453689420085</v>
+        <v>1.021761209360528</v>
       </c>
       <c r="N25">
-        <v>1.012512736936458</v>
+        <v>1.008195909237475</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_31/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9929340654558387</v>
+        <v>1.023352524527558</v>
       </c>
       <c r="D2">
-        <v>1.014478139115415</v>
+        <v>1.040302752691603</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680758</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.014141975127355</v>
+        <v>1.044811286751538</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04074038143576</v>
+        <v>1.054014112863643</v>
       </c>
       <c r="J2">
-        <v>1.015328191116093</v>
+        <v>1.044856514848175</v>
       </c>
       <c r="K2">
-        <v>1.025739389124946</v>
+        <v>1.051227771058206</v>
       </c>
       <c r="L2">
-        <v>0.964870170840339</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.025407743794171</v>
+        <v>1.055679729505167</v>
       </c>
       <c r="N2">
-        <v>1.009124404890251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.018598124737349</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.052639061275515</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.047292702629999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9967039168142868</v>
+        <v>1.026930248187751</v>
       </c>
       <c r="D3">
-        <v>1.017195057433115</v>
+        <v>1.042674135494148</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057846</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.017573536908786</v>
+        <v>1.047279373723367</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041420537355827</v>
+        <v>1.054870851999026</v>
       </c>
       <c r="J3">
-        <v>1.017284841471936</v>
+        <v>1.046712751183715</v>
       </c>
       <c r="K3">
-        <v>1.027612551924692</v>
+        <v>1.052788625628298</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474063</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.027986392386088</v>
+        <v>1.057341038811053</v>
       </c>
       <c r="N3">
-        <v>1.009779341793406</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.019233908438893</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.053953853395439</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.048393702712257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9990989114408437</v>
+        <v>1.029206428588497</v>
       </c>
       <c r="D4">
-        <v>1.01892332182001</v>
+        <v>1.044187184057446</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088611</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.019758616233372</v>
+        <v>1.048856156690162</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041842107554444</v>
+        <v>1.055408830468979</v>
       </c>
       <c r="J4">
-        <v>1.01852569527589</v>
+        <v>1.047891429610898</v>
       </c>
       <c r="K4">
-        <v>1.028798600171907</v>
+        <v>1.05378002770646</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952755</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.029624280384359</v>
+        <v>1.058398630081777</v>
       </c>
       <c r="N4">
-        <v>1.010194571818114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.019637645434635</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.054790850266401</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.049095577211969</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.000095468207546</v>
+        <v>1.030158432519687</v>
       </c>
       <c r="D5">
-        <v>1.019642932612483</v>
+        <v>1.044823054731924</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.020668990250214</v>
+        <v>1.049517833376445</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042014956186653</v>
+        <v>1.055633891935407</v>
       </c>
       <c r="J5">
-        <v>1.019041457206296</v>
+        <v>1.048385739575914</v>
       </c>
       <c r="K5">
-        <v>1.029291121507328</v>
+        <v>1.054197195210343</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.030305686835617</v>
+        <v>1.058842655841237</v>
       </c>
       <c r="N5">
-        <v>1.010367133722997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.019807504596556</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.055142260012738</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.049397623501133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.000262199556361</v>
+        <v>1.03032279612128</v>
       </c>
       <c r="D6">
-        <v>1.019763355714311</v>
+        <v>1.044935357328415</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017083</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.020821369891577</v>
+        <v>1.049632947751959</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042043723056785</v>
+        <v>1.055674817197938</v>
       </c>
       <c r="J6">
-        <v>1.019127714495607</v>
+        <v>1.048473358050624</v>
       </c>
       <c r="K6">
-        <v>1.029373464489344</v>
+        <v>1.054272752769037</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965043</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.030419683133913</v>
+        <v>1.058921218814213</v>
       </c>
       <c r="N6">
-        <v>1.010395991655778</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.019838264809114</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.055204436105682</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.049459682805924</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9991122675358497</v>
+        <v>1.029232769578489</v>
       </c>
       <c r="D7">
-        <v>1.018932964383342</v>
+        <v>1.044211367435711</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.019770812742175</v>
+        <v>1.048876560840711</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041844434299065</v>
+        <v>1.055420906337716</v>
       </c>
       <c r="J7">
-        <v>1.018532609876615</v>
+        <v>1.047911318665877</v>
       </c>
       <c r="K7">
-        <v>1.028805205034255</v>
+        <v>1.053801116347693</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.02963341327617</v>
+        <v>1.058415999603553</v>
       </c>
       <c r="N7">
-        <v>1.010196885398185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.019646253870479</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.054804596812561</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.049130350149244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9942174839186114</v>
+        <v>1.024586936038919</v>
       </c>
       <c r="D8">
-        <v>1.015402604048088</v>
+        <v>1.041128240925298</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922295</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.015309155400491</v>
+        <v>1.045664110430653</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040974117223404</v>
+        <v>1.054318450320607</v>
       </c>
       <c r="J8">
-        <v>1.015994764818272</v>
+        <v>1.045505193142129</v>
       </c>
       <c r="K8">
-        <v>1.026377902195209</v>
+        <v>1.05177849732566</v>
       </c>
       <c r="L8">
-        <v>0.9660706434537708</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.026285671859351</v>
+        <v>1.056259117272831</v>
       </c>
       <c r="N8">
-        <v>1.009347545421226</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.018822625601727</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.053097600152476</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.047704737253135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9852375503672066</v>
+        <v>1.016068740415436</v>
       </c>
       <c r="D9">
-        <v>1.008945536096045</v>
+        <v>1.035500705533573</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925935</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.007165238252268</v>
+        <v>1.039824270569327</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039295788639806</v>
+        <v>1.052232870109012</v>
       </c>
       <c r="J9">
-        <v>1.011322599485655</v>
+        <v>1.041066556989128</v>
       </c>
       <c r="K9">
-        <v>1.021895126525705</v>
+        <v>1.048042918665898</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834084</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.020143124383482</v>
+        <v>1.052302657988255</v>
       </c>
       <c r="N9">
-        <v>1.007783094061775</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.017300535782853</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.049966374873261</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.045060356241452</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9789903369890709</v>
+        <v>1.010234004373362</v>
       </c>
       <c r="D10">
-        <v>1.004470083607343</v>
+        <v>1.031697998672163</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547281</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.001530277790478</v>
+        <v>1.035934519708245</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038075526822688</v>
+        <v>1.050797860709189</v>
       </c>
       <c r="J10">
-        <v>1.0080630542854</v>
+        <v>1.03804738493245</v>
       </c>
       <c r="K10">
-        <v>1.018759095639751</v>
+        <v>1.045517587421759</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.015871957458675</v>
+        <v>1.049683922930372</v>
       </c>
       <c r="N10">
-        <v>1.006691207321938</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.016274504213301</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.047944699773728</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.043291457044055</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9762181428381633</v>
+        <v>1.008193051224236</v>
       </c>
       <c r="D11">
-        <v>1.002488821518911</v>
+        <v>1.030570043529949</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016256</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.9990376631762031</v>
+        <v>1.035155017881617</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03752211783385</v>
+        <v>1.05050797779271</v>
       </c>
       <c r="J11">
-        <v>1.006614869572532</v>
+        <v>1.037228917557299</v>
       </c>
       <c r="K11">
-        <v>1.017363954444536</v>
+        <v>1.044937597091684</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416571</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.013977750607584</v>
+        <v>1.049443078283236</v>
       </c>
       <c r="N11">
-        <v>1.006206011351394</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.016068531875616</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.048185475578754</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.04291388579203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9751778648737922</v>
+        <v>1.007613934426782</v>
       </c>
       <c r="D12">
-        <v>1.001746120500489</v>
+        <v>1.030333289792973</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9981035401501719</v>
+        <v>1.035191279657052</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037312707790475</v>
+        <v>1.050519167951825</v>
       </c>
       <c r="J12">
-        <v>1.006071202975027</v>
+        <v>1.03709951823181</v>
       </c>
       <c r="K12">
-        <v>1.016839943882383</v>
+        <v>1.04490154587314</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252506</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.013267163752313</v>
+        <v>1.04967396107493</v>
       </c>
       <c r="N12">
-        <v>1.006023852600894</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.016079880494713</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.048691168328376</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.042888396917922</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9754014939714507</v>
+        <v>1.008141177332352</v>
       </c>
       <c r="D13">
-        <v>1.001905743131315</v>
+        <v>1.030788693070459</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368229</v>
+        <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>0.9983042920401706</v>
+        <v>1.035884777101727</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037357802635417</v>
+        <v>1.050779910880955</v>
       </c>
       <c r="J13">
-        <v>1.006188085020132</v>
+        <v>1.037513563653614</v>
       </c>
       <c r="K13">
-        <v>1.016952611430849</v>
+        <v>1.045306746076268</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>1.013419908026703</v>
+        <v>1.050313488968356</v>
       </c>
       <c r="N13">
-        <v>1.006063015054974</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.016269113855651</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.049470986577226</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.043172415138974</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9761323714616015</v>
+        <v>1.009011858506477</v>
       </c>
       <c r="D14">
-        <v>1.002427569307634</v>
+        <v>1.031421777374658</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>0.9989606187450772</v>
+        <v>1.036667714580768</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037504886993304</v>
+        <v>1.051075262648656</v>
       </c>
       <c r="J14">
-        <v>1.006570048464934</v>
+        <v>1.038049606203606</v>
       </c>
       <c r="K14">
-        <v>1.017320758947571</v>
+        <v>1.045790719616031</v>
       </c>
       <c r="L14">
-        <v>0.949074550976452</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.013919157561619</v>
+        <v>1.050945854786475</v>
       </c>
       <c r="N14">
-        <v>1.006190993964886</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.016482136725765</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.050142800551681</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.043516002549886</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9765812748777927</v>
+        <v>1.009472672136132</v>
       </c>
       <c r="D15">
-        <v>1.002748178333837</v>
+        <v>1.031737073715773</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9332781050737292</v>
       </c>
       <c r="F15">
-        <v>0.9993638987403652</v>
+        <v>1.037018248073787</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037594997693629</v>
+        <v>1.051208057793354</v>
       </c>
       <c r="J15">
-        <v>1.006804620497192</v>
+        <v>1.038307880098542</v>
       </c>
       <c r="K15">
-        <v>1.017546812941167</v>
+        <v>1.046015560575636</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782941</v>
+        <v>0.9494987508782936</v>
       </c>
       <c r="M15">
-        <v>1.014225826596056</v>
+        <v>1.05120601984646</v>
       </c>
       <c r="N15">
-        <v>1.006269587312752</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.016576814801013</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.050385698436455</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.043680775556908</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9791728642016592</v>
+        <v>1.011846400911279</v>
       </c>
       <c r="D16">
-        <v>1.004600638210244</v>
+        <v>1.033268433960992</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017261</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.001694566215127</v>
+        <v>1.038565709059292</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038111719958396</v>
+        <v>1.051783720324376</v>
       </c>
       <c r="J16">
-        <v>1.008158372084638</v>
+        <v>1.039522456642865</v>
       </c>
       <c r="K16">
-        <v>1.018850885482612</v>
+        <v>1.047026926373192</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175717</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.01599670400325</v>
+        <v>1.052237153696538</v>
       </c>
       <c r="N16">
-        <v>1.006723140826</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.016980872706075</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.051162282567921</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.044398964170965</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9807802030524546</v>
+        <v>1.013213328535443</v>
       </c>
       <c r="D17">
-        <v>1.005750850826829</v>
+        <v>1.034113207115275</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.003142200549554</v>
+        <v>1.039338977673228</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038429084258968</v>
+        <v>1.052068727123778</v>
       </c>
       <c r="J17">
-        <v>1.008997545859839</v>
+        <v>1.040173039548788</v>
       </c>
       <c r="K17">
-        <v>1.01965879258945</v>
+        <v>1.047548425688831</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068056</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.017095359007984</v>
+        <v>1.052690703096551</v>
       </c>
       <c r="N17">
-        <v>1.007004273015031</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.01717913170552</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.051392773172571</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.044770235571823</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9817112953276004</v>
+        <v>1.013821201005183</v>
       </c>
       <c r="D18">
-        <v>1.006417584734014</v>
+        <v>1.034415535357655</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.003981526590816</v>
+        <v>1.039466039100402</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038611788987568</v>
+        <v>1.052112057012982</v>
       </c>
       <c r="J18">
-        <v>1.00948348852303</v>
+        <v>1.040372040060677</v>
       </c>
       <c r="K18">
-        <v>1.020126454213</v>
+        <v>1.047665526169341</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.017731885800901</v>
+        <v>1.052636619247271</v>
       </c>
       <c r="N18">
-        <v>1.007167061156715</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.017206347346256</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.051114466438028</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.044841522981194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9820276952704052</v>
+        <v>1.013754878695553</v>
       </c>
       <c r="D19">
-        <v>1.006644224787389</v>
+        <v>1.034242709988853</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.004266867948009</v>
+        <v>1.039013971689076</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038673680677669</v>
+        <v>1.051947683825801</v>
       </c>
       <c r="J19">
-        <v>1.009648589610475</v>
+        <v>1.040176476912881</v>
       </c>
       <c r="K19">
-        <v>1.020285313957521</v>
+        <v>1.047433916523978</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.017948203539758</v>
+        <v>1.052130499236496</v>
       </c>
       <c r="N19">
-        <v>1.007222367728295</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.017088335542899</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.050392076429361</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.044684094851131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9806084204312551</v>
+        <v>1.011782564012409</v>
       </c>
       <c r="D20">
-        <v>1.005627876587863</v>
+        <v>1.032723207336</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.002987408348038</v>
+        <v>1.036973584481798</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038395283823507</v>
+        <v>1.051197299834598</v>
       </c>
       <c r="J20">
-        <v>1.008907877465014</v>
+        <v>1.038866723431308</v>
       </c>
       <c r="K20">
-        <v>1.019572483199281</v>
+        <v>1.046214069410967</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.016977930397444</v>
+        <v>1.050396027992428</v>
       </c>
       <c r="N20">
-        <v>1.006974233943186</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.016558584548772</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.048497819429477</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.043825514450108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9759174418009684</v>
+        <v>1.007299930605554</v>
       </c>
       <c r="D21">
-        <v>1.00227409358616</v>
+        <v>1.029770956275669</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148896</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9987675776456262</v>
+        <v>1.033886753578859</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037461681318486</v>
+        <v>1.050038682902364</v>
       </c>
       <c r="J21">
-        <v>1.006457730212152</v>
+        <v>1.036495583847791</v>
       </c>
       <c r="K21">
-        <v>1.017212510269089</v>
+        <v>1.044209438356848</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.013772336323679</v>
+        <v>1.048253365786793</v>
       </c>
       <c r="N21">
-        <v>1.006153361391584</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.015739058859702</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.046761666055464</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.042411387519507</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9729066727642072</v>
+        <v>1.0044464599761</v>
       </c>
       <c r="D22">
-        <v>1.000126118064205</v>
+        <v>1.027903181587862</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.9960664561553478</v>
+        <v>1.031964502225295</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036852369412506</v>
+        <v>1.049301645391086</v>
       </c>
       <c r="J22">
-        <v>1.004883860367886</v>
+        <v>1.034992726336781</v>
       </c>
       <c r="K22">
-        <v>1.015695076945085</v>
+        <v>1.042941422516639</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572518</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.01171624214956</v>
+        <v>1.046928262137479</v>
       </c>
       <c r="N22">
-        <v>1.00562601000825</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.015221613671472</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.045712943623418</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.041501492377944</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9745087225616557</v>
+        <v>1.005951125217429</v>
       </c>
       <c r="D23">
-        <v>1.001268617238412</v>
+        <v>1.028881457019034</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.9975030372816868</v>
+        <v>1.032975208740021</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037177523940565</v>
+        <v>1.049685664598179</v>
       </c>
       <c r="J23">
-        <v>1.005721438170841</v>
+        <v>1.035779641694478</v>
       </c>
       <c r="K23">
-        <v>1.016502754527413</v>
+        <v>1.043601603335538</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285314</v>
+        <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.012810159701143</v>
+        <v>1.04762218854824</v>
       </c>
       <c r="N23">
-        <v>1.00590665921136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.015490596043721</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.046262135711518</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.041958720254099</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.980686061474506</v>
+        <v>1.011783827904502</v>
       </c>
       <c r="D24">
-        <v>1.005683456208069</v>
+        <v>1.032695993439205</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>1.003057367876566</v>
+        <v>1.036914738702976</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038410564221935</v>
+        <v>1.051168561236043</v>
       </c>
       <c r="J24">
-        <v>1.008948405655825</v>
+        <v>1.038835694993951</v>
       </c>
       <c r="K24">
-        <v>1.019611493737012</v>
+        <v>1.046172269986975</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.017031004601357</v>
+        <v>1.050323185320874</v>
       </c>
       <c r="N24">
-        <v>1.006987810983715</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.016538584052954</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.048399773553621</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.043768845047332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9876033137401672</v>
+        <v>1.018331493754951</v>
       </c>
       <c r="D25">
-        <v>1.010644020367741</v>
+        <v>1.037001517243586</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718014</v>
+        <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.009305654360292</v>
+        <v>1.041372419358391</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039747231747645</v>
+        <v>1.052802304674333</v>
       </c>
       <c r="J25">
-        <v>1.012555201358354</v>
+        <v>1.042257296333052</v>
       </c>
       <c r="K25">
-        <v>1.023079318535621</v>
+        <v>1.049051356974824</v>
       </c>
       <c r="L25">
         <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.021761209360528</v>
+        <v>1.053360720276869</v>
       </c>
       <c r="N25">
-        <v>1.008195909237475</v>
+        <v>1.017711919158196</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.050803748953585</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.045801633784629</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_31/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.023352524527558</v>
+        <v>1.0216546197869</v>
       </c>
       <c r="D2">
-        <v>1.040302752691603</v>
+        <v>1.038071259020243</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9527101846680759</v>
       </c>
       <c r="F2">
-        <v>1.044811286751538</v>
+        <v>1.043230125937752</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.054014112863643</v>
+        <v>1.052939141362172</v>
       </c>
       <c r="J2">
-        <v>1.044856514848175</v>
+        <v>1.043206388126129</v>
       </c>
       <c r="K2">
-        <v>1.051227771058206</v>
+        <v>1.049024506393411</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.055679729505167</v>
+        <v>1.054118340567792</v>
       </c>
       <c r="N2">
-        <v>1.018598124737349</v>
+        <v>1.018491046839624</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.052639061275515</v>
+        <v>1.051403345963887</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.047292702629999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.045743514434432</v>
+      </c>
+      <c r="S2">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T2">
+        <v>1.024979332271637</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026930248187751</v>
+        <v>1.025059330843043</v>
       </c>
       <c r="D3">
-        <v>1.042674135494148</v>
+        <v>1.040249722069518</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.047279373723367</v>
+        <v>1.045556540138971</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.054870851999026</v>
+        <v>1.05368992332255</v>
       </c>
       <c r="J3">
-        <v>1.046712751183715</v>
+        <v>1.044889406707912</v>
       </c>
       <c r="K3">
-        <v>1.052788625628298</v>
+        <v>1.050392254027173</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.057341038811053</v>
+        <v>1.055637899995408</v>
       </c>
       <c r="N3">
-        <v>1.019233908438893</v>
+        <v>1.018946631548294</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.053953853395439</v>
+        <v>1.052605956567828</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.048393702712257</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.046707699969385</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025250541478021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029206428588497</v>
+        <v>1.027226582799092</v>
       </c>
       <c r="D4">
-        <v>1.044187184057446</v>
+        <v>1.041640780426398</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.048856156690162</v>
+        <v>1.047043890077453</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.055408830468979</v>
+        <v>1.054160876368909</v>
       </c>
       <c r="J4">
-        <v>1.047891429610898</v>
+        <v>1.045958571829886</v>
       </c>
       <c r="K4">
-        <v>1.05378002770646</v>
+        <v>1.051261328986591</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.058398630081777</v>
+        <v>1.056605849348765</v>
       </c>
       <c r="N4">
-        <v>1.019637645434635</v>
+        <v>1.019236153676114</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.054790850266401</v>
+        <v>1.053372010604902</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.049095577211969</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.047323164906904</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025420620355238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030158432519687</v>
+        <v>1.028133184323404</v>
       </c>
       <c r="D5">
-        <v>1.044823054731924</v>
+        <v>1.042225766883724</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.049517833376445</v>
+        <v>1.047668279608618</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.055633891935407</v>
+        <v>1.05435793410752</v>
       </c>
       <c r="J5">
-        <v>1.048385739575914</v>
+        <v>1.046407142141528</v>
       </c>
       <c r="K5">
-        <v>1.054197195210343</v>
+        <v>1.051627425124983</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.058842655841237</v>
+        <v>1.057012466895001</v>
       </c>
       <c r="N5">
-        <v>1.019807504596556</v>
+        <v>1.019358042123232</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.055142260012738</v>
+        <v>1.053693815446525</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.049397623501133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.047589814087156</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025492316111349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.03032279612128</v>
+        <v>1.028289595161125</v>
       </c>
       <c r="D6">
-        <v>1.044935357328415</v>
+        <v>1.042329249072614</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.049632947751959</v>
+        <v>1.047776910609716</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.055674817197938</v>
+        <v>1.054393954425616</v>
       </c>
       <c r="J6">
-        <v>1.048473358050624</v>
+        <v>1.046486753616123</v>
       </c>
       <c r="K6">
-        <v>1.054272752769037</v>
+        <v>1.051694131087377</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.058921218814213</v>
+        <v>1.057084526612769</v>
       </c>
       <c r="N6">
-        <v>1.019838264809114</v>
+        <v>1.019380154231248</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.055204436105682</v>
+        <v>1.0537508448602</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.049459682805924</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.047646486192992</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025506071769248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029232769578489</v>
+        <v>1.027261008871109</v>
       </c>
       <c r="D7">
-        <v>1.044211367435711</v>
+        <v>1.041670333470467</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.048876560840711</v>
+        <v>1.047068909986092</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.055420906337716</v>
+        <v>1.054176785414586</v>
       </c>
       <c r="J7">
-        <v>1.047911318665877</v>
+        <v>1.045986333381111</v>
       </c>
       <c r="K7">
-        <v>1.053801116347693</v>
+        <v>1.051287717937255</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.058415999603553</v>
+        <v>1.056627777516805</v>
       </c>
       <c r="N7">
-        <v>1.019646253870479</v>
+        <v>1.019271112961335</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.054804596812561</v>
+        <v>1.053389364976671</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.049130350149244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.047363689996525</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025428653376069</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.024586936038919</v>
+        <v>1.022858510001947</v>
       </c>
       <c r="D8">
-        <v>1.041128240925298</v>
+        <v>1.038851215711608</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.045664110430653</v>
+        <v>1.044051663004041</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.054318450320607</v>
+        <v>1.053221469515396</v>
       </c>
       <c r="J8">
-        <v>1.045505193142129</v>
+        <v>1.043823793898729</v>
       </c>
       <c r="K8">
-        <v>1.05177849732566</v>
+        <v>1.049529433925727</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.056259117272831</v>
+        <v>1.054666242067746</v>
       </c>
       <c r="N8">
-        <v>1.018822625601727</v>
+        <v>1.01873935128952</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.053097600152476</v>
+        <v>1.05183696670882</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.047704737253135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.046125439581845</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025085172280868</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.016068740415436</v>
+        <v>1.014764365915927</v>
       </c>
       <c r="D9">
-        <v>1.035500705533573</v>
+        <v>1.033691099870465</v>
       </c>
       <c r="E9">
         <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.039824270569327</v>
+        <v>1.038556459679437</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.052232870109012</v>
+        <v>1.051393092515909</v>
       </c>
       <c r="J9">
-        <v>1.041066556989128</v>
+        <v>1.039806316727945</v>
       </c>
       <c r="K9">
-        <v>1.048042918665898</v>
+        <v>1.046260228489749</v>
       </c>
       <c r="L9">
         <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.052302657988255</v>
+        <v>1.051053492949704</v>
       </c>
       <c r="N9">
-        <v>1.017300535782853</v>
+        <v>1.017660753423444</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.049966374873261</v>
+        <v>1.048977756606578</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.045060356241452</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.043810523727069</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024422656936699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.010234004373362</v>
+        <v>1.009265025535503</v>
       </c>
       <c r="D10">
-        <v>1.031697998672163</v>
+        <v>1.030238837001885</v>
       </c>
       <c r="E10">
         <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.035934519708245</v>
+        <v>1.034929151079238</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.050797860709189</v>
+        <v>1.050154378458163</v>
       </c>
       <c r="J10">
-        <v>1.03804738493245</v>
+        <v>1.037115810372154</v>
       </c>
       <c r="K10">
-        <v>1.045517587421759</v>
+        <v>1.04408277157965</v>
       </c>
       <c r="L10">
         <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.049683922930372</v>
+        <v>1.048695143106504</v>
       </c>
       <c r="N10">
-        <v>1.016274504213301</v>
+        <v>1.017057251360106</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.047944699773728</v>
+        <v>1.047162202126381</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.043291457044055</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.042289267275411</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023981739764162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.008193051224236</v>
+        <v>1.00736348891733</v>
       </c>
       <c r="D11">
-        <v>1.030570043529949</v>
+        <v>1.029237433408573</v>
       </c>
       <c r="E11">
         <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.035155017881617</v>
+        <v>1.03424839502447</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.05050797779271</v>
+        <v>1.049934577237726</v>
       </c>
       <c r="J11">
-        <v>1.037228917557299</v>
+        <v>1.036433114451413</v>
       </c>
       <c r="K11">
-        <v>1.044937597091684</v>
+        <v>1.043628263514709</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.049443078283236</v>
+        <v>1.048552101916581</v>
       </c>
       <c r="N11">
-        <v>1.016068531875616</v>
+        <v>1.017152181274</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.048185475578754</v>
+        <v>1.047480724453037</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.04291388579203</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.042003632228326</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023951772746189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.007613934426782</v>
+        <v>1.006813059049175</v>
       </c>
       <c r="D12">
-        <v>1.030333289792973</v>
+        <v>1.029022559646507</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.035191279657052</v>
+        <v>1.034302586327064</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.050519167951825</v>
+        <v>1.049954948988653</v>
       </c>
       <c r="J12">
-        <v>1.03709951823181</v>
+        <v>1.036331850886364</v>
       </c>
       <c r="K12">
-        <v>1.04490154587314</v>
+        <v>1.0436140841842</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.04967396107493</v>
+        <v>1.04880084444314</v>
       </c>
       <c r="N12">
-        <v>1.016079880494713</v>
+        <v>1.01726277613102</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.048691168328376</v>
+        <v>1.048000773186913</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.042888396917922</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.041993607364582</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023991599373641</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.008141177332352</v>
+        <v>1.007269535122925</v>
       </c>
       <c r="D13">
-        <v>1.030788693070459</v>
+        <v>1.02940915778106</v>
       </c>
       <c r="E13">
         <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.035884777101727</v>
+        <v>1.034943417807613</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.050779910880955</v>
+        <v>1.05017119796125</v>
       </c>
       <c r="J13">
-        <v>1.037513563653614</v>
+        <v>1.036677881905312</v>
       </c>
       <c r="K13">
-        <v>1.045306746076268</v>
+        <v>1.043951593225412</v>
       </c>
       <c r="L13">
         <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>1.050313488968356</v>
+        <v>1.049388547154364</v>
       </c>
       <c r="N13">
-        <v>1.016269113855651</v>
+        <v>1.017362962498737</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.049470986577226</v>
+        <v>1.048739792639082</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.043172415138974</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.042229519604761</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024093636878822</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.009011858506477</v>
+        <v>1.008046646966518</v>
       </c>
       <c r="D14">
-        <v>1.031421777374658</v>
+        <v>1.029954074949418</v>
       </c>
       <c r="E14">
         <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.036667714580768</v>
+        <v>1.03565840301459</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.051075262648656</v>
+        <v>1.05041208834069</v>
       </c>
       <c r="J14">
-        <v>1.038049606203606</v>
+        <v>1.037123647068161</v>
       </c>
       <c r="K14">
-        <v>1.045790719616031</v>
+        <v>1.044348636180569</v>
       </c>
       <c r="L14">
         <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.050945854786475</v>
+        <v>1.049953920995123</v>
       </c>
       <c r="N14">
-        <v>1.016482136725765</v>
+        <v>1.017430139913214</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.050142800551681</v>
+        <v>1.049358751933782</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.043516002549886</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.042511779168788</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024193874377067</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.009472672136132</v>
+        <v>1.008463210006361</v>
       </c>
       <c r="D15">
-        <v>1.031737073715773</v>
+        <v>1.03022815789395</v>
       </c>
       <c r="E15">
         <v>0.9332781050737292</v>
       </c>
       <c r="F15">
-        <v>1.037018248073787</v>
+        <v>1.035977112590112</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.051208057793354</v>
+        <v>1.050520099702861</v>
       </c>
       <c r="J15">
-        <v>1.038307880098542</v>
+        <v>1.037339113678956</v>
       </c>
       <c r="K15">
-        <v>1.046015560575636</v>
+        <v>1.044532784584204</v>
       </c>
       <c r="L15">
         <v>0.9494987508782936</v>
       </c>
       <c r="M15">
-        <v>1.05120601984646</v>
+        <v>1.050182673445362</v>
       </c>
       <c r="N15">
-        <v>1.016576814801013</v>
+        <v>1.017450354962194</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.050385698436455</v>
+        <v>1.049576841608043</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.043680775556908</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.042648351475231</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.024235468194807</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.011846400911279</v>
+        <v>1.010642172862057</v>
       </c>
       <c r="D16">
-        <v>1.033268433960992</v>
+        <v>1.031577392538176</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.038565709059292</v>
+        <v>1.037384349084955</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.051783720324376</v>
+        <v>1.050990081050786</v>
       </c>
       <c r="J16">
-        <v>1.039522456642865</v>
+        <v>1.038364372398043</v>
       </c>
       <c r="K16">
-        <v>1.047026926373192</v>
+        <v>1.045363915483431</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.052237153696538</v>
+        <v>1.051075107470802</v>
       </c>
       <c r="N16">
-        <v>1.016980872706075</v>
+        <v>1.017512236608156</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.051162282567921</v>
+        <v>1.050243771069906</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.044398964170965</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.043239410729922</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.024397326504422</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.013213328535443</v>
+        <v>1.011919861786571</v>
       </c>
       <c r="D17">
-        <v>1.034113207115275</v>
+        <v>1.032336240928582</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.039338977673228</v>
+        <v>1.038092041697275</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.052068727123778</v>
+        <v>1.051227318267202</v>
       </c>
       <c r="J17">
-        <v>1.040173039548788</v>
+        <v>1.038927560071113</v>
       </c>
       <c r="K17">
-        <v>1.047548425688831</v>
+        <v>1.045800097621448</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.052690703096551</v>
+        <v>1.051463591806671</v>
       </c>
       <c r="N17">
-        <v>1.01717913170552</v>
+        <v>1.01755402557753</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.051392773172571</v>
+        <v>1.050422737259167</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.044770235571823</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.043550609652008</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024470122766432</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.013821201005183</v>
+        <v>1.012509531430937</v>
       </c>
       <c r="D18">
-        <v>1.034415535357655</v>
+        <v>1.032620177400225</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.039466039100402</v>
+        <v>1.038205190341276</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.052112057012982</v>
+        <v>1.051263294262582</v>
       </c>
       <c r="J18">
-        <v>1.040372040060677</v>
+        <v>1.039108133827098</v>
       </c>
       <c r="K18">
-        <v>1.047665526169341</v>
+        <v>1.045898636947445</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.052636619247271</v>
+        <v>1.051395502647222</v>
       </c>
       <c r="N18">
-        <v>1.017206347346256</v>
+        <v>1.017534777714334</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.051114466438028</v>
+        <v>1.050133158152445</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.044841522981194</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.043607637045781</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024460829974239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.013754878695553</v>
+        <v>1.012480057690951</v>
       </c>
       <c r="D19">
-        <v>1.034242709988853</v>
+        <v>1.032483485608443</v>
       </c>
       <c r="E19">
         <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.039013971689076</v>
+        <v>1.037780398875743</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.051947683825801</v>
+        <v>1.051123637195868</v>
       </c>
       <c r="J19">
-        <v>1.040176476912881</v>
+        <v>1.038947813073357</v>
       </c>
       <c r="K19">
-        <v>1.047433916523978</v>
+        <v>1.045702450218558</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.052130499236496</v>
+        <v>1.050916149948897</v>
       </c>
       <c r="N19">
-        <v>1.017088335542899</v>
+        <v>1.01744632460541</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.050392076429361</v>
+        <v>1.049431624446388</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.044684094851131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.043475880442265</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024381683261676</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.011782564012409</v>
+        <v>1.01069531527535</v>
       </c>
       <c r="D20">
-        <v>1.032723207336</v>
+        <v>1.031150129443624</v>
       </c>
       <c r="E20">
         <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.036973584481798</v>
+        <v>1.035880877728548</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.051197299834598</v>
+        <v>1.050486806032387</v>
       </c>
       <c r="J20">
-        <v>1.038866723431308</v>
+        <v>1.037820086312853</v>
       </c>
       <c r="K20">
-        <v>1.046214069410967</v>
+        <v>1.044666497116124</v>
       </c>
       <c r="L20">
         <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.050396027992428</v>
+        <v>1.04932084182832</v>
       </c>
       <c r="N20">
-        <v>1.016558584548772</v>
+        <v>1.017150402714803</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.048497819429477</v>
+        <v>1.047646931727746</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.043825514450108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.042747709160786</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024103414421729</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.007299930605554</v>
+        <v>1.006615840197069</v>
       </c>
       <c r="D21">
-        <v>1.029770956275669</v>
+        <v>1.028574541725002</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.033886753578859</v>
+        <v>1.033085484146647</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.050038682902364</v>
+        <v>1.049553955873614</v>
       </c>
       <c r="J21">
-        <v>1.036495583847791</v>
+        <v>1.03583953660072</v>
       </c>
       <c r="K21">
-        <v>1.044209438356848</v>
+        <v>1.043034055414684</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.048253365786793</v>
+        <v>1.047466029969462</v>
       </c>
       <c r="N21">
-        <v>1.015739058859702</v>
+        <v>1.017034333619258</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.046761666055464</v>
+        <v>1.046138547633864</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.042411387519507</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.041597056255538</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023770429442471</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.0044464599761</v>
+        <v>1.004017528812713</v>
       </c>
       <c r="D22">
-        <v>1.027903181587862</v>
+        <v>1.026945307234394</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.031964502225295</v>
+        <v>1.031348101529273</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.049301645391086</v>
+        <v>1.048959955279782</v>
       </c>
       <c r="J22">
-        <v>1.034992726336781</v>
+        <v>1.034582395565264</v>
       </c>
       <c r="K22">
-        <v>1.042941422516639</v>
+        <v>1.042001226646544</v>
       </c>
       <c r="L22">
         <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.046928262137479</v>
+        <v>1.046323116526783</v>
       </c>
       <c r="N22">
-        <v>1.015221613671472</v>
+        <v>1.016955704185144</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.045712943623418</v>
+        <v>1.045234014721246</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.041501492377944</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.040852144056843</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023559534021051</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.005951125217429</v>
+        <v>1.005371579193557</v>
       </c>
       <c r="D23">
-        <v>1.028881457019034</v>
+        <v>1.027785928668828</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>1.032975208740021</v>
+        <v>1.032251374948512</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.049685664598179</v>
+        <v>1.049260374289772</v>
       </c>
       <c r="J23">
-        <v>1.035779641694478</v>
+        <v>1.035224495600077</v>
       </c>
       <c r="K23">
-        <v>1.043601603335538</v>
+        <v>1.042525783557086</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.04762218854824</v>
+        <v>1.046911236818161</v>
       </c>
       <c r="N23">
-        <v>1.015490596043721</v>
+        <v>1.016949087083327</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.046262135711518</v>
+        <v>1.0456994693211</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.041958720254099</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.04121253917822</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.02366337029281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.011783827904502</v>
+        <v>1.010700903805164</v>
       </c>
       <c r="D24">
-        <v>1.032695993439205</v>
+        <v>1.031126990482629</v>
       </c>
       <c r="E24">
         <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>1.036914738702976</v>
+        <v>1.035825165474057</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.051168561236043</v>
+        <v>1.050461166189487</v>
       </c>
       <c r="J24">
-        <v>1.038835694993951</v>
+        <v>1.037793163955516</v>
       </c>
       <c r="K24">
-        <v>1.046172269986975</v>
+        <v>1.044628675649883</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.050323185320874</v>
+        <v>1.04925106262085</v>
       </c>
       <c r="N24">
-        <v>1.016538584052954</v>
+        <v>1.017132827018114</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.048399773553621</v>
+        <v>1.047551269001721</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.043768845047332</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.042691175930299</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024087446055322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.018331493754951</v>
+        <v>1.016900588685649</v>
       </c>
       <c r="D25">
-        <v>1.037001517243586</v>
+        <v>1.035058046144123</v>
       </c>
       <c r="E25">
         <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.041372419358391</v>
+        <v>1.040004758212503</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.052802304674333</v>
+        <v>1.051887354529747</v>
       </c>
       <c r="J25">
-        <v>1.042257296333052</v>
+        <v>1.040872266496591</v>
       </c>
       <c r="K25">
-        <v>1.049051356974824</v>
+        <v>1.047135459531001</v>
       </c>
       <c r="L25">
         <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.053360720276869</v>
+        <v>1.052012244468397</v>
       </c>
       <c r="N25">
-        <v>1.017711919158196</v>
+        <v>1.017918261464503</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.050803748953585</v>
+        <v>1.049736534975787</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.045801633784629</v>
+        <v>1.044460427464758</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024603980936285</v>
       </c>
     </row>
   </sheetData>
